--- a/subtotals_1.xlsx
+++ b/subtotals_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18495" windowHeight="9900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18495" windowHeight="9900" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="71">
   <si>
     <t>max</t>
   </si>
@@ -431,6 +431,15 @@
   <si>
     <t>the number of the best decisions R.A.</t>
   </si>
+  <si>
+    <t>i(average) for best solutions</t>
+  </si>
+  <si>
+    <t>max - i(avg) for the best solutions</t>
+  </si>
+  <si>
+    <t>min - i(avg) for the best solutions</t>
+  </si>
 </sst>
 </file>
 
@@ -753,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6748,195 +6757,195 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <f xml:space="preserve"> MAX(B2:B41)</f>
+        <f t="shared" ref="B44:AW44" si="0" xml:space="preserve"> MAX(B2:B41)</f>
         <v>654</v>
       </c>
       <c r="C44">
-        <f xml:space="preserve"> MAX(C2:C41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="D44">
-        <f xml:space="preserve"> MAX(D2:D41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="E44">
-        <f xml:space="preserve"> MAX(E2:E41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="F44">
-        <f xml:space="preserve"> MAX(F2:F41)</f>
+        <f t="shared" si="0"/>
         <v>635</v>
       </c>
       <c r="G44">
-        <f xml:space="preserve"> MAX(G2:G41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="H44">
-        <f xml:space="preserve"> MAX(H2:H41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="I44">
-        <f xml:space="preserve"> MAX(I2:I41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="J44">
-        <f xml:space="preserve"> MAX(J2:J41)</f>
+        <f t="shared" si="0"/>
         <v>647</v>
       </c>
       <c r="K44">
-        <f xml:space="preserve"> MAX(K2:K41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="L44">
-        <f xml:space="preserve"> MAX(L2:L41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="M44">
-        <f xml:space="preserve"> MAX(M2:M41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="N44">
-        <f xml:space="preserve"> MAX(N2:N41)</f>
+        <f t="shared" si="0"/>
         <v>633</v>
       </c>
       <c r="O44">
-        <f xml:space="preserve"> MAX(O2:O41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="P44">
-        <f xml:space="preserve"> MAX(P2:P41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="Q44">
-        <f xml:space="preserve"> MAX(Q2:Q41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="R44">
-        <f xml:space="preserve"> MAX(R2:R41)</f>
+        <f t="shared" si="0"/>
         <v>616</v>
       </c>
       <c r="S44">
-        <f xml:space="preserve"> MAX(S2:S41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="T44">
-        <f xml:space="preserve"> MAX(T2:T41)</f>
+        <f t="shared" si="0"/>
         <v>635</v>
       </c>
       <c r="U44">
-        <f xml:space="preserve"> MAX(U2:U41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="V44">
-        <f xml:space="preserve"> MAX(V2:V41)</f>
+        <f t="shared" si="0"/>
         <v>636</v>
       </c>
       <c r="W44">
-        <f xml:space="preserve"> MAX(W2:W41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="X44">
-        <f xml:space="preserve"> MAX(X2:X41)</f>
+        <f t="shared" si="0"/>
         <v>610</v>
       </c>
       <c r="Y44">
-        <f xml:space="preserve"> MAX(Y2:Y41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="Z44">
-        <f xml:space="preserve"> MAX(Z2:Z41)</f>
+        <f t="shared" si="0"/>
         <v>633</v>
       </c>
       <c r="AA44">
-        <f xml:space="preserve"> MAX(AA2:AA41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AB44">
-        <f xml:space="preserve"> MAX(AB2:AB41)</f>
+        <f t="shared" si="0"/>
         <v>649</v>
       </c>
       <c r="AC44">
-        <f xml:space="preserve"> MAX(AC2:AC41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AD44">
-        <f xml:space="preserve"> MAX(AD2:AD41)</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
       <c r="AE44">
-        <f xml:space="preserve"> MAX(AE2:AE41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AF44">
-        <f xml:space="preserve"> MAX(AF2:AF41)</f>
+        <f t="shared" si="0"/>
         <v>649</v>
       </c>
       <c r="AG44">
-        <f xml:space="preserve"> MAX(AG2:AG41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AH44">
-        <f xml:space="preserve"> MAX(AH2:AH41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AI44">
-        <f xml:space="preserve"> MAX(AI2:AI41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="AJ44">
-        <f xml:space="preserve"> MAX(AJ2:AJ41)</f>
+        <f t="shared" si="0"/>
         <v>649</v>
       </c>
       <c r="AK44">
-        <f xml:space="preserve"> MAX(AK2:AK41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AL44">
-        <f xml:space="preserve"> MAX(AL2:AL41)</f>
+        <f t="shared" si="0"/>
         <v>596</v>
       </c>
       <c r="AM44">
-        <f xml:space="preserve"> MAX(AM2:AM41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AN44">
-        <f xml:space="preserve"> MAX(AN2:AN41)</f>
+        <f t="shared" si="0"/>
         <v>627</v>
       </c>
       <c r="AO44">
-        <f xml:space="preserve"> MAX(AO2:AO41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AP44">
-        <f xml:space="preserve"> MAX(AP2:AP41)</f>
+        <f t="shared" si="0"/>
         <v>588</v>
       </c>
       <c r="AQ44">
-        <f xml:space="preserve"> MAX(AQ2:AQ41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AR44">
-        <f xml:space="preserve"> MAX(AR2:AR41)</f>
+        <f t="shared" si="0"/>
         <v>631</v>
       </c>
       <c r="AS44">
-        <f xml:space="preserve"> MAX(AS2:AS41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AT44">
-        <f xml:space="preserve"> MAX(AT2:AT41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="AU44">
-        <f xml:space="preserve"> MAX(AU2:AU41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AV44">
-        <f xml:space="preserve"> MAX(AV2:AV41)</f>
+        <f t="shared" si="0"/>
         <v>650</v>
       </c>
       <c r="AW44">
-        <f xml:space="preserve"> MAX(AW2:AW41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
     </row>
@@ -6945,195 +6954,195 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <f xml:space="preserve"> MIN(B2:B41)</f>
+        <f t="shared" ref="B45:AW45" si="1" xml:space="preserve"> MIN(B2:B41)</f>
         <v>618</v>
       </c>
       <c r="C45">
-        <f xml:space="preserve"> MIN(C2:C41)</f>
+        <f t="shared" si="1"/>
         <v>639</v>
       </c>
       <c r="D45">
-        <f xml:space="preserve"> MIN(D2:D41)</f>
+        <f t="shared" si="1"/>
         <v>647</v>
       </c>
       <c r="E45">
-        <f xml:space="preserve"> MIN(E2:E41)</f>
+        <f t="shared" si="1"/>
         <v>647</v>
       </c>
       <c r="F45">
-        <f xml:space="preserve"> MIN(F2:F41)</f>
+        <f t="shared" si="1"/>
         <v>531</v>
       </c>
       <c r="G45">
-        <f xml:space="preserve"> MIN(G2:G41)</f>
+        <f t="shared" si="1"/>
         <v>557</v>
       </c>
       <c r="H45">
-        <f xml:space="preserve"> MIN(H2:H41)</f>
+        <f t="shared" si="1"/>
         <v>637</v>
       </c>
       <c r="I45">
-        <f xml:space="preserve"> MIN(I2:I41)</f>
+        <f t="shared" si="1"/>
         <v>584</v>
       </c>
       <c r="J45">
-        <f xml:space="preserve"> MIN(J2:J41)</f>
+        <f t="shared" si="1"/>
         <v>612</v>
       </c>
       <c r="K45">
-        <f xml:space="preserve"> MIN(K2:K41)</f>
+        <f t="shared" si="1"/>
         <v>645</v>
       </c>
       <c r="L45">
-        <f xml:space="preserve"> MIN(L2:L41)</f>
+        <f t="shared" si="1"/>
         <v>482</v>
       </c>
       <c r="M45">
-        <f xml:space="preserve"> MIN(M2:M41)</f>
+        <f t="shared" si="1"/>
         <v>652</v>
       </c>
       <c r="N45">
-        <f xml:space="preserve"> MIN(N2:N41)</f>
+        <f t="shared" si="1"/>
         <v>633</v>
       </c>
       <c r="O45">
-        <f xml:space="preserve"> MIN(O2:O41)</f>
+        <f t="shared" si="1"/>
         <v>626</v>
       </c>
       <c r="P45">
-        <f xml:space="preserve"> MIN(P2:P41)</f>
+        <f t="shared" si="1"/>
         <v>505</v>
       </c>
       <c r="Q45">
-        <f xml:space="preserve"> MIN(Q2:Q41)</f>
+        <f t="shared" si="1"/>
         <v>631</v>
       </c>
       <c r="R45">
-        <f xml:space="preserve"> MIN(R2:R41)</f>
+        <f t="shared" si="1"/>
         <v>436</v>
       </c>
       <c r="S45">
-        <f xml:space="preserve"> MIN(S2:S41)</f>
+        <f t="shared" si="1"/>
         <v>633</v>
       </c>
       <c r="T45">
-        <f xml:space="preserve"> MIN(T2:T41)</f>
+        <f t="shared" si="1"/>
         <v>545</v>
       </c>
       <c r="U45">
-        <f xml:space="preserve"> MIN(U2:U41)</f>
+        <f t="shared" si="1"/>
         <v>652</v>
       </c>
       <c r="V45">
-        <f xml:space="preserve"> MIN(V2:V41)</f>
+        <f t="shared" si="1"/>
         <v>594</v>
       </c>
       <c r="W45">
-        <f xml:space="preserve"> MIN(W2:W41)</f>
+        <f t="shared" si="1"/>
         <v>596</v>
       </c>
       <c r="X45">
-        <f xml:space="preserve"> MIN(X2:X41)</f>
+        <f t="shared" si="1"/>
         <v>553</v>
       </c>
       <c r="Y45">
-        <f xml:space="preserve"> MIN(Y2:Y41)</f>
+        <f t="shared" si="1"/>
         <v>631</v>
       </c>
       <c r="Z45">
-        <f xml:space="preserve"> MIN(Z2:Z41)</f>
+        <f t="shared" si="1"/>
         <v>585</v>
       </c>
       <c r="AA45">
-        <f xml:space="preserve"> MIN(AA2:AA41)</f>
+        <f t="shared" si="1"/>
         <v>620</v>
       </c>
       <c r="AB45">
-        <f xml:space="preserve"> MIN(AB2:AB41)</f>
+        <f t="shared" si="1"/>
         <v>633</v>
       </c>
       <c r="AC45">
-        <f xml:space="preserve"> MIN(AC2:AC41)</f>
+        <f t="shared" si="1"/>
         <v>613</v>
       </c>
       <c r="AD45">
-        <f xml:space="preserve"> MIN(AD2:AD41)</f>
+        <f t="shared" si="1"/>
         <v>590</v>
       </c>
       <c r="AE45">
-        <f xml:space="preserve"> MIN(AE2:AE41)</f>
+        <f t="shared" si="1"/>
         <v>605</v>
       </c>
       <c r="AF45">
-        <f xml:space="preserve"> MIN(AF2:AF41)</f>
+        <f t="shared" si="1"/>
         <v>649</v>
       </c>
       <c r="AG45">
-        <f xml:space="preserve"> MIN(AG2:AG41)</f>
+        <f t="shared" si="1"/>
         <v>625</v>
       </c>
       <c r="AH45">
-        <f xml:space="preserve"> MIN(AH2:AH41)</f>
+        <f t="shared" si="1"/>
         <v>603</v>
       </c>
       <c r="AI45">
-        <f xml:space="preserve"> MIN(AI2:AI41)</f>
+        <f t="shared" si="1"/>
         <v>625</v>
       </c>
       <c r="AJ45">
-        <f xml:space="preserve"> MIN(AJ2:AJ41)</f>
+        <f t="shared" si="1"/>
         <v>634</v>
       </c>
       <c r="AK45">
-        <f xml:space="preserve"> MIN(AK2:AK41)</f>
+        <f t="shared" si="1"/>
         <v>652</v>
       </c>
       <c r="AL45">
-        <f xml:space="preserve"> MIN(AL2:AL41)</f>
+        <f t="shared" si="1"/>
         <v>524</v>
       </c>
       <c r="AM45">
-        <f xml:space="preserve"> MIN(AM2:AM41)</f>
+        <f t="shared" si="1"/>
         <v>640</v>
       </c>
       <c r="AN45">
-        <f xml:space="preserve"> MIN(AN2:AN41)</f>
+        <f t="shared" si="1"/>
         <v>582</v>
       </c>
       <c r="AO45">
-        <f xml:space="preserve"> MIN(AO2:AO41)</f>
+        <f t="shared" si="1"/>
         <v>638</v>
       </c>
       <c r="AP45">
-        <f xml:space="preserve"> MIN(AP2:AP41)</f>
+        <f t="shared" si="1"/>
         <v>459</v>
       </c>
       <c r="AQ45">
-        <f xml:space="preserve"> MIN(AQ2:AQ41)</f>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="AR45">
-        <f xml:space="preserve"> MIN(AR2:AR41)</f>
+        <f t="shared" si="1"/>
         <v>598</v>
       </c>
       <c r="AS45">
-        <f xml:space="preserve"> MIN(AS2:AS41)</f>
+        <f t="shared" si="1"/>
         <v>596</v>
       </c>
       <c r="AT45">
-        <f xml:space="preserve"> MIN(AT2:AT41)</f>
+        <f t="shared" si="1"/>
         <v>621</v>
       </c>
       <c r="AU45">
-        <f xml:space="preserve"> MIN(AU2:AU41)</f>
+        <f t="shared" si="1"/>
         <v>611</v>
       </c>
       <c r="AV45">
-        <f xml:space="preserve"> MIN(AV2:AV41)</f>
+        <f t="shared" si="1"/>
         <v>532</v>
       </c>
       <c r="AW45">
-        <f xml:space="preserve"> MIN(AW2:AW41)</f>
+        <f t="shared" si="1"/>
         <v>604</v>
       </c>
     </row>
@@ -7142,195 +7151,195 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <f xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
+        <f t="shared" ref="B46:AW46" si="2" xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
         <v>18</v>
       </c>
       <c r="C46">
-        <f xml:space="preserve"> MATCH(C44,C2:C41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D46">
-        <f xml:space="preserve"> MATCH(D44,D2:D41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E46">
-        <f xml:space="preserve"> MATCH(E44,E2:E41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F46">
-        <f xml:space="preserve"> MATCH(F44,F2:F41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G46">
-        <f xml:space="preserve"> MATCH(G44,G2:G41,0)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="H46">
-        <f xml:space="preserve"> MATCH(H44,H2:H41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I46">
-        <f xml:space="preserve"> MATCH(I44,I2:I41,0)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J46">
-        <f xml:space="preserve"> MATCH(J44,J2:J41,0)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K46">
-        <f xml:space="preserve"> MATCH(K44,K2:K41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L46">
-        <f xml:space="preserve"> MATCH(L44,L2:L41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M46">
-        <f xml:space="preserve"> MATCH(M44,M2:M41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N46">
-        <f xml:space="preserve"> MATCH(N44,N2:N41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O46">
-        <f xml:space="preserve"> MATCH(O44,O2:O41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P46">
-        <f xml:space="preserve"> MATCH(P44,P2:P41,0)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="Q46">
-        <f xml:space="preserve"> MATCH(Q44,Q2:Q41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="R46">
-        <f xml:space="preserve"> MATCH(R44,R2:R41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="S46">
-        <f xml:space="preserve"> MATCH(S44,S2:S41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="T46">
-        <f xml:space="preserve"> MATCH(T44,T2:T41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="U46">
-        <f xml:space="preserve"> MATCH(U44,U2:U41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V46">
-        <f xml:space="preserve"> MATCH(V44,V2:V41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W46">
-        <f xml:space="preserve"> MATCH(W44,W2:W41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="X46">
-        <f xml:space="preserve"> MATCH(X44,X2:X41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Y46">
-        <f xml:space="preserve"> MATCH(Y44,Y2:Y41,0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Z46">
-        <f xml:space="preserve"> MATCH(Z44,Z2:Z41,0)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="AA46">
-        <f xml:space="preserve"> MATCH(AA44,AA2:AA41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB46">
-        <f xml:space="preserve"> MATCH(AB44,AB2:AB41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AC46">
-        <f xml:space="preserve"> MATCH(AC44,AC2:AC41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AD46">
-        <f xml:space="preserve"> MATCH(AD44,AD2:AD41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE46">
-        <f xml:space="preserve"> MATCH(AE44,AE2:AE41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AF46">
-        <f xml:space="preserve"> MATCH(AF44,AF2:AF41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AG46">
-        <f xml:space="preserve"> MATCH(AG44,AG2:AG41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AH46">
-        <f xml:space="preserve"> MATCH(AH44,AH2:AH41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AI46">
-        <f xml:space="preserve"> MATCH(AI44,AI2:AI41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AJ46">
-        <f xml:space="preserve"> MATCH(AJ44,AJ2:AJ41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AK46">
-        <f xml:space="preserve"> MATCH(AK44,AK2:AK41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AL46">
-        <f xml:space="preserve"> MATCH(AL44,AL2:AL41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AM46">
-        <f xml:space="preserve"> MATCH(AM44,AM2:AM41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AN46">
-        <f xml:space="preserve"> MATCH(AN44,AN2:AN41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AO46">
-        <f xml:space="preserve"> MATCH(AO44,AO2:AO41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AP46">
-        <f xml:space="preserve"> MATCH(AP44,AP2:AP41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AQ46">
-        <f xml:space="preserve"> MATCH(AQ44,AQ2:AQ41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AR46">
-        <f xml:space="preserve"> MATCH(AR44,AR2:AR41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AS46">
-        <f xml:space="preserve"> MATCH(AS44,AS2:AS41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AT46">
-        <f xml:space="preserve"> MATCH(AT44,AT2:AT41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AU46">
-        <f xml:space="preserve"> MATCH(AU44,AU2:AU41,0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AV46">
-        <f xml:space="preserve"> MATCH(AV44,AV2:AV41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AW46">
-        <f xml:space="preserve"> MATCH(AW44,AW2:AW41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -13338,195 +13347,195 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <f xml:space="preserve"> MAX(B2:B41)</f>
+        <f t="shared" ref="B44:AW44" si="0" xml:space="preserve"> MAX(B2:B41)</f>
         <v>641</v>
       </c>
       <c r="C44">
-        <f xml:space="preserve"> MAX(C2:C41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="D44">
-        <f xml:space="preserve"> MAX(D2:D41)</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
       <c r="E44">
-        <f xml:space="preserve"> MAX(E2:E41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="F44">
-        <f xml:space="preserve"> MAX(F2:F41)</f>
+        <f t="shared" si="0"/>
         <v>636</v>
       </c>
       <c r="G44">
-        <f xml:space="preserve"> MAX(G2:G41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="H44">
-        <f xml:space="preserve"> MAX(H2:H41)</f>
+        <f t="shared" si="0"/>
         <v>647</v>
       </c>
       <c r="I44">
-        <f xml:space="preserve"> MAX(I2:I41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="J44">
-        <f xml:space="preserve"> MAX(J2:J41)</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
       <c r="K44">
-        <f xml:space="preserve"> MAX(K2:K41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="L44">
-        <f xml:space="preserve"> MAX(L2:L41)</f>
+        <f t="shared" si="0"/>
         <v>640</v>
       </c>
       <c r="M44">
-        <f xml:space="preserve"> MAX(M2:M41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="N44">
-        <f xml:space="preserve"> MAX(N2:N41)</f>
+        <f t="shared" si="0"/>
         <v>648</v>
       </c>
       <c r="O44">
-        <f xml:space="preserve"> MAX(O2:O41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="P44">
-        <f xml:space="preserve"> MAX(P2:P41)</f>
+        <f t="shared" si="0"/>
         <v>613</v>
       </c>
       <c r="Q44">
-        <f xml:space="preserve"> MAX(Q2:Q41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="R44">
-        <f xml:space="preserve"> MAX(R2:R41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="S44">
-        <f xml:space="preserve"> MAX(S2:S41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="T44">
-        <f xml:space="preserve"> MAX(T2:T41)</f>
+        <f t="shared" si="0"/>
         <v>638</v>
       </c>
       <c r="U44">
-        <f xml:space="preserve"> MAX(U2:U41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="V44">
-        <f xml:space="preserve"> MAX(V2:V41)</f>
+        <f t="shared" si="0"/>
         <v>613</v>
       </c>
       <c r="W44">
-        <f xml:space="preserve"> MAX(W2:W41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="X44">
-        <f xml:space="preserve"> MAX(X2:X41)</f>
+        <f t="shared" si="0"/>
         <v>638</v>
       </c>
       <c r="Y44">
-        <f xml:space="preserve"> MAX(Y2:Y41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="Z44">
-        <f xml:space="preserve"> MAX(Z2:Z41)</f>
+        <f t="shared" si="0"/>
         <v>645</v>
       </c>
       <c r="AA44">
-        <f xml:space="preserve"> MAX(AA2:AA41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AB44">
-        <f xml:space="preserve"> MAX(AB2:AB41)</f>
+        <f t="shared" si="0"/>
         <v>648</v>
       </c>
       <c r="AC44">
-        <f xml:space="preserve"> MAX(AC2:AC41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AD44">
-        <f xml:space="preserve"> MAX(AD2:AD41)</f>
+        <f t="shared" si="0"/>
         <v>638</v>
       </c>
       <c r="AE44">
-        <f xml:space="preserve"> MAX(AE2:AE41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AF44">
-        <f xml:space="preserve"> MAX(AF2:AF41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AG44">
-        <f xml:space="preserve"> MAX(AG2:AG41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AH44">
-        <f xml:space="preserve"> MAX(AH2:AH41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AI44">
-        <f xml:space="preserve"> MAX(AI2:AI41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AJ44">
-        <f xml:space="preserve"> MAX(AJ2:AJ41)</f>
+        <f t="shared" si="0"/>
         <v>627</v>
       </c>
       <c r="AK44">
-        <f xml:space="preserve"> MAX(AK2:AK41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AL44">
-        <f xml:space="preserve"> MAX(AL2:AL41)</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
       <c r="AM44">
-        <f xml:space="preserve"> MAX(AM2:AM41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AN44">
-        <f xml:space="preserve"> MAX(AN2:AN41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AO44">
-        <f xml:space="preserve"> MAX(AO2:AO41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AP44">
-        <f xml:space="preserve"> MAX(AP2:AP41)</f>
+        <f t="shared" si="0"/>
         <v>647</v>
       </c>
       <c r="AQ44">
-        <f xml:space="preserve"> MAX(AQ2:AQ41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AR44">
-        <f xml:space="preserve"> MAX(AR2:AR41)</f>
+        <f t="shared" si="0"/>
         <v>631</v>
       </c>
       <c r="AS44">
-        <f xml:space="preserve"> MAX(AS2:AS41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AT44">
-        <f xml:space="preserve"> MAX(AT2:AT41)</f>
+        <f t="shared" si="0"/>
         <v>639</v>
       </c>
       <c r="AU44">
-        <f xml:space="preserve"> MAX(AU2:AU41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AV44">
-        <f xml:space="preserve"> MAX(AV2:AV41)</f>
+        <f t="shared" si="0"/>
         <v>645</v>
       </c>
       <c r="AW44">
-        <f xml:space="preserve"> MAX(AW2:AW41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
     </row>
@@ -13535,195 +13544,195 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <f xml:space="preserve"> MIN(B2:B41)</f>
+        <f t="shared" ref="B45:AW45" si="1" xml:space="preserve"> MIN(B2:B41)</f>
         <v>615</v>
       </c>
       <c r="C45">
-        <f xml:space="preserve"> MIN(C2:C41)</f>
+        <f t="shared" si="1"/>
         <v>649</v>
       </c>
       <c r="D45">
-        <f xml:space="preserve"> MIN(D2:D41)</f>
+        <f t="shared" si="1"/>
         <v>618</v>
       </c>
       <c r="E45">
-        <f xml:space="preserve"> MIN(E2:E41)</f>
+        <f t="shared" si="1"/>
         <v>621</v>
       </c>
       <c r="F45">
-        <f xml:space="preserve"> MIN(F2:F41)</f>
+        <f t="shared" si="1"/>
         <v>634</v>
       </c>
       <c r="G45">
-        <f xml:space="preserve"> MIN(G2:G41)</f>
+        <f t="shared" si="1"/>
         <v>631</v>
       </c>
       <c r="H45">
-        <f xml:space="preserve"> MIN(H2:H41)</f>
+        <f t="shared" si="1"/>
         <v>615</v>
       </c>
       <c r="I45">
-        <f xml:space="preserve"> MIN(I2:I41)</f>
+        <f t="shared" si="1"/>
         <v>618</v>
       </c>
       <c r="J45">
-        <f xml:space="preserve"> MIN(J2:J41)</f>
+        <f t="shared" si="1"/>
         <v>627</v>
       </c>
       <c r="K45">
-        <f xml:space="preserve"> MIN(K2:K41)</f>
+        <f t="shared" si="1"/>
         <v>576</v>
       </c>
       <c r="L45">
-        <f xml:space="preserve"> MIN(L2:L41)</f>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="M45">
-        <f xml:space="preserve"> MIN(M2:M41)</f>
+        <f t="shared" si="1"/>
         <v>598</v>
       </c>
       <c r="N45">
-        <f xml:space="preserve"> MIN(N2:N41)</f>
+        <f t="shared" si="1"/>
         <v>582</v>
       </c>
       <c r="O45">
-        <f xml:space="preserve"> MIN(O2:O41)</f>
+        <f t="shared" si="1"/>
         <v>638</v>
       </c>
       <c r="P45">
-        <f xml:space="preserve"> MIN(P2:P41)</f>
+        <f t="shared" si="1"/>
         <v>564</v>
       </c>
       <c r="Q45">
-        <f xml:space="preserve"> MIN(Q2:Q41)</f>
+        <f t="shared" si="1"/>
         <v>635</v>
       </c>
       <c r="R45">
-        <f xml:space="preserve"> MIN(R2:R41)</f>
+        <f t="shared" si="1"/>
         <v>615</v>
       </c>
       <c r="S45">
-        <f xml:space="preserve"> MIN(S2:S41)</f>
+        <f t="shared" si="1"/>
         <v>643</v>
       </c>
       <c r="T45">
-        <f xml:space="preserve"> MIN(T2:T41)</f>
+        <f t="shared" si="1"/>
         <v>539</v>
       </c>
       <c r="U45">
-        <f xml:space="preserve"> MIN(U2:U41)</f>
+        <f t="shared" si="1"/>
         <v>643</v>
       </c>
       <c r="V45">
-        <f xml:space="preserve"> MIN(V2:V41)</f>
+        <f t="shared" si="1"/>
         <v>572</v>
       </c>
       <c r="W45">
-        <f xml:space="preserve"> MIN(W2:W41)</f>
+        <f t="shared" si="1"/>
         <v>605</v>
       </c>
       <c r="X45">
-        <f xml:space="preserve"> MIN(X2:X41)</f>
+        <f t="shared" si="1"/>
         <v>581</v>
       </c>
       <c r="Y45">
-        <f xml:space="preserve"> MIN(Y2:Y41)</f>
+        <f t="shared" si="1"/>
         <v>616</v>
       </c>
       <c r="Z45">
-        <f xml:space="preserve"> MIN(Z2:Z41)</f>
+        <f t="shared" si="1"/>
         <v>629</v>
       </c>
       <c r="AA45">
-        <f xml:space="preserve"> MIN(AA2:AA41)</f>
+        <f t="shared" si="1"/>
         <v>596</v>
       </c>
       <c r="AB45">
-        <f xml:space="preserve"> MIN(AB2:AB41)</f>
+        <f t="shared" si="1"/>
         <v>596</v>
       </c>
       <c r="AC45">
-        <f xml:space="preserve"> MIN(AC2:AC41)</f>
+        <f t="shared" si="1"/>
         <v>646</v>
       </c>
       <c r="AD45">
-        <f xml:space="preserve"> MIN(AD2:AD41)</f>
+        <f t="shared" si="1"/>
         <v>479</v>
       </c>
       <c r="AE45">
-        <f xml:space="preserve"> MIN(AE2:AE41)</f>
+        <f t="shared" si="1"/>
         <v>646</v>
       </c>
       <c r="AF45">
-        <f xml:space="preserve"> MIN(AF2:AF41)</f>
+        <f t="shared" si="1"/>
         <v>589</v>
       </c>
       <c r="AG45">
-        <f xml:space="preserve"> MIN(AG2:AG41)</f>
+        <f t="shared" si="1"/>
         <v>648</v>
       </c>
       <c r="AH45">
-        <f xml:space="preserve"> MIN(AH2:AH41)</f>
+        <f t="shared" si="1"/>
         <v>607</v>
       </c>
       <c r="AI45">
-        <f xml:space="preserve"> MIN(AI2:AI41)</f>
+        <f t="shared" si="1"/>
         <v>623</v>
       </c>
       <c r="AJ45">
-        <f xml:space="preserve"> MIN(AJ2:AJ41)</f>
+        <f t="shared" si="1"/>
         <v>627</v>
       </c>
       <c r="AK45">
-        <f xml:space="preserve"> MIN(AK2:AK41)</f>
+        <f t="shared" si="1"/>
         <v>640</v>
       </c>
       <c r="AL45">
-        <f xml:space="preserve"> MIN(AL2:AL41)</f>
+        <f t="shared" si="1"/>
         <v>602</v>
       </c>
       <c r="AM45">
-        <f xml:space="preserve"> MIN(AM2:AM41)</f>
+        <f t="shared" si="1"/>
         <v>621</v>
       </c>
       <c r="AN45">
-        <f xml:space="preserve"> MIN(AN2:AN41)</f>
+        <f t="shared" si="1"/>
         <v>582</v>
       </c>
       <c r="AO45">
-        <f xml:space="preserve"> MIN(AO2:AO41)</f>
+        <f t="shared" si="1"/>
         <v>640</v>
       </c>
       <c r="AP45">
-        <f xml:space="preserve"> MIN(AP2:AP41)</f>
+        <f t="shared" si="1"/>
         <v>618</v>
       </c>
       <c r="AQ45">
-        <f xml:space="preserve"> MIN(AQ2:AQ41)</f>
+        <f t="shared" si="1"/>
         <v>603</v>
       </c>
       <c r="AR45">
-        <f xml:space="preserve"> MIN(AR2:AR41)</f>
+        <f t="shared" si="1"/>
         <v>583</v>
       </c>
       <c r="AS45">
-        <f xml:space="preserve"> MIN(AS2:AS41)</f>
+        <f t="shared" si="1"/>
         <v>638</v>
       </c>
       <c r="AT45">
-        <f xml:space="preserve"> MIN(AT2:AT41)</f>
+        <f t="shared" si="1"/>
         <v>631</v>
       </c>
       <c r="AU45">
-        <f xml:space="preserve"> MIN(AU2:AU41)</f>
+        <f t="shared" si="1"/>
         <v>640</v>
       </c>
       <c r="AV45">
-        <f xml:space="preserve"> MIN(AV2:AV41)</f>
+        <f t="shared" si="1"/>
         <v>546</v>
       </c>
       <c r="AW45">
-        <f xml:space="preserve"> MIN(AW2:AW41)</f>
+        <f t="shared" si="1"/>
         <v>645</v>
       </c>
     </row>
@@ -13732,195 +13741,195 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <f xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
+        <f t="shared" ref="B46:AW46" si="2" xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
         <v>27</v>
       </c>
       <c r="C46">
-        <f xml:space="preserve"> MATCH(C44,C2:C41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D46">
-        <f xml:space="preserve"> MATCH(D44,D2:D41,0)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="E46">
-        <f xml:space="preserve"> MATCH(E44,E2:E41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F46">
-        <f xml:space="preserve"> MATCH(F44,F2:F41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G46">
-        <f xml:space="preserve"> MATCH(G44,G2:G41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H46">
-        <f xml:space="preserve"> MATCH(H44,H2:H41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I46">
-        <f xml:space="preserve"> MATCH(I44,I2:I41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J46">
-        <f xml:space="preserve"> MATCH(J44,J2:J41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K46">
-        <f xml:space="preserve"> MATCH(K44,K2:K41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L46">
-        <f xml:space="preserve"> MATCH(L44,L2:L41,0)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="M46">
-        <f xml:space="preserve"> MATCH(M44,M2:M41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N46">
-        <f xml:space="preserve"> MATCH(N44,N2:N41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O46">
-        <f xml:space="preserve"> MATCH(O44,O2:O41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P46">
-        <f xml:space="preserve"> MATCH(P44,P2:P41,0)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="Q46">
-        <f xml:space="preserve"> MATCH(Q44,Q2:Q41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R46">
-        <f xml:space="preserve"> MATCH(R44,R2:R41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S46">
-        <f xml:space="preserve"> MATCH(S44,S2:S41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="T46">
-        <f xml:space="preserve"> MATCH(T44,T2:T41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="U46">
-        <f xml:space="preserve"> MATCH(U44,U2:U41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="V46">
-        <f xml:space="preserve"> MATCH(V44,V2:V41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W46">
-        <f xml:space="preserve"> MATCH(W44,W2:W41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="X46">
-        <f xml:space="preserve"> MATCH(X44,X2:X41,0)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="Y46">
-        <f xml:space="preserve"> MATCH(Y44,Y2:Y41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="Z46">
-        <f xml:space="preserve"> MATCH(Z44,Z2:Z41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA46">
-        <f xml:space="preserve"> MATCH(AA44,AA2:AA41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AB46">
-        <f xml:space="preserve"> MATCH(AB44,AB2:AB41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AC46">
-        <f xml:space="preserve"> MATCH(AC44,AC2:AC41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD46">
-        <f xml:space="preserve"> MATCH(AD44,AD2:AD41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE46">
-        <f xml:space="preserve"> MATCH(AE44,AE2:AE41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AF46">
-        <f xml:space="preserve"> MATCH(AF44,AF2:AF41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AG46">
-        <f xml:space="preserve"> MATCH(AG44,AG2:AG41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AH46">
-        <f xml:space="preserve"> MATCH(AH44,AH2:AH41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AI46">
-        <f xml:space="preserve"> MATCH(AI44,AI2:AI41,0)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AJ46">
-        <f xml:space="preserve"> MATCH(AJ44,AJ2:AJ41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AK46">
-        <f xml:space="preserve"> MATCH(AK44,AK2:AK41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AL46">
-        <f xml:space="preserve"> MATCH(AL44,AL2:AL41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AM46">
-        <f xml:space="preserve"> MATCH(AM44,AM2:AM41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AN46">
-        <f xml:space="preserve"> MATCH(AN44,AN2:AN41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AO46">
-        <f xml:space="preserve"> MATCH(AO44,AO2:AO41,0)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AP46">
-        <f xml:space="preserve"> MATCH(AP44,AP2:AP41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AQ46">
-        <f xml:space="preserve"> MATCH(AQ44,AQ2:AQ41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AR46">
-        <f xml:space="preserve"> MATCH(AR44,AR2:AR41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AS46">
-        <f xml:space="preserve"> MATCH(AS44,AS2:AS41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AT46">
-        <f xml:space="preserve"> MATCH(AT44,AT2:AT41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AU46">
-        <f xml:space="preserve"> MATCH(AU44,AU2:AU41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AV46">
-        <f xml:space="preserve"> MATCH(AV44,AV2:AV41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AW46">
-        <f xml:space="preserve"> MATCH(AW44,AW2:AW41,0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -13931,9 +13940,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW22"/>
+  <dimension ref="A1:AW26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:AW26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -15044,7 +15055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -15057,7 +15068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -15070,7 +15081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -15083,7 +15094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -15096,7 +15107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -15105,13 +15116,230 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
       <c r="E22">
         <f>COUNTIF(Z2:AW2,D13)</f>
         <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" ref="B24:AW24" si="0" xml:space="preserve"> IF(B2 =$D$13, B5, "" )</f>
+        <v>13.6</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AD24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="0"/>
+        <v>6.9</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="AL24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="0"/>
+        <v>6.7</v>
+      </c>
+      <c r="AP24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="0"/>
+        <v>7.3</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="AV24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25">
+        <f>MAX(A24:AW24)</f>
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26">
+        <f>MIN(A24:AW24)</f>
+        <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -21118,195 +21346,195 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <f xml:space="preserve"> MAX(B2:B41)</f>
+        <f t="shared" ref="B44:AW44" si="0" xml:space="preserve"> MAX(B2:B41)</f>
         <v>648</v>
       </c>
       <c r="C44">
-        <f xml:space="preserve"> MAX(C2:C41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="D44">
-        <f xml:space="preserve"> MAX(D2:D41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="E44">
-        <f xml:space="preserve"> MAX(E2:E41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="F44">
-        <f xml:space="preserve"> MAX(F2:F41)</f>
+        <f t="shared" si="0"/>
         <v>601</v>
       </c>
       <c r="G44">
-        <f xml:space="preserve"> MAX(G2:G41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="H44">
-        <f xml:space="preserve"> MAX(H2:H41)</f>
+        <f t="shared" si="0"/>
         <v>651</v>
       </c>
       <c r="I44">
-        <f xml:space="preserve"> MAX(I2:I41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="J44">
-        <f xml:space="preserve"> MAX(J2:J41)</f>
+        <f t="shared" si="0"/>
         <v>613</v>
       </c>
       <c r="K44">
-        <f xml:space="preserve"> MAX(K2:K41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="L44">
-        <f xml:space="preserve"> MAX(L2:L41)</f>
+        <f t="shared" si="0"/>
         <v>591</v>
       </c>
       <c r="M44">
-        <f xml:space="preserve"> MAX(M2:M41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="N44">
-        <f xml:space="preserve"> MAX(N2:N41)</f>
+        <f t="shared" si="0"/>
         <v>622</v>
       </c>
       <c r="O44">
-        <f xml:space="preserve"> MAX(O2:O41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="P44">
-        <f xml:space="preserve"> MAX(P2:P41)</f>
+        <f t="shared" si="0"/>
         <v>625</v>
       </c>
       <c r="Q44">
-        <f xml:space="preserve"> MAX(Q2:Q41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="R44">
-        <f xml:space="preserve"> MAX(R2:R41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="S44">
-        <f xml:space="preserve"> MAX(S2:S41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="T44">
-        <f xml:space="preserve"> MAX(T2:T41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="U44">
-        <f xml:space="preserve"> MAX(U2:U41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="V44">
-        <f xml:space="preserve"> MAX(V2:V41)</f>
+        <f t="shared" si="0"/>
         <v>616</v>
       </c>
       <c r="W44">
-        <f xml:space="preserve"> MAX(W2:W41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="X44">
-        <f xml:space="preserve"> MAX(X2:X41)</f>
+        <f t="shared" si="0"/>
         <v>644</v>
       </c>
       <c r="Y44">
-        <f xml:space="preserve"> MAX(Y2:Y41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="Z44">
-        <f xml:space="preserve"> MAX(Z2:Z41)</f>
+        <f t="shared" si="0"/>
         <v>639</v>
       </c>
       <c r="AA44">
-        <f xml:space="preserve"> MAX(AA2:AA41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AB44">
-        <f xml:space="preserve"> MAX(AB2:AB41)</f>
+        <f t="shared" si="0"/>
         <v>645</v>
       </c>
       <c r="AC44">
-        <f xml:space="preserve"> MAX(AC2:AC41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AD44">
-        <f xml:space="preserve"> MAX(AD2:AD41)</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
       <c r="AE44">
-        <f xml:space="preserve"> MAX(AE2:AE41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AF44">
-        <f xml:space="preserve"> MAX(AF2:AF41)</f>
+        <f t="shared" si="0"/>
         <v>647</v>
       </c>
       <c r="AG44">
-        <f xml:space="preserve"> MAX(AG2:AG41)</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
       <c r="AH44">
-        <f xml:space="preserve"> MAX(AH2:AH41)</f>
+        <f t="shared" si="0"/>
         <v>646</v>
       </c>
       <c r="AI44">
-        <f xml:space="preserve"> MAX(AI2:AI41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AJ44">
-        <f xml:space="preserve"> MAX(AJ2:AJ41)</f>
+        <f t="shared" si="0"/>
         <v>650</v>
       </c>
       <c r="AK44">
-        <f xml:space="preserve"> MAX(AK2:AK41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AL44">
-        <f xml:space="preserve"> MAX(AL2:AL41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AM44">
-        <f xml:space="preserve"> MAX(AM2:AM41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AN44">
-        <f xml:space="preserve"> MAX(AN2:AN41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AO44">
-        <f xml:space="preserve"> MAX(AO2:AO41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AP44">
-        <f xml:space="preserve"> MAX(AP2:AP41)</f>
+        <f t="shared" si="0"/>
         <v>640</v>
       </c>
       <c r="AQ44">
-        <f xml:space="preserve"> MAX(AQ2:AQ41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AR44">
-        <f xml:space="preserve"> MAX(AR2:AR41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AS44">
-        <f xml:space="preserve"> MAX(AS2:AS41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AT44">
-        <f xml:space="preserve"> MAX(AT2:AT41)</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
       <c r="AU44">
-        <f xml:space="preserve"> MAX(AU2:AU41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AV44">
-        <f xml:space="preserve"> MAX(AV2:AV41)</f>
+        <f t="shared" si="0"/>
         <v>648</v>
       </c>
       <c r="AW44">
-        <f xml:space="preserve"> MAX(AW2:AW41)</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
     </row>
@@ -21315,195 +21543,195 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <f xml:space="preserve"> MIN(B2:B41)</f>
+        <f t="shared" ref="B45:AW45" si="1" xml:space="preserve"> MIN(B2:B41)</f>
         <v>538</v>
       </c>
       <c r="C45">
-        <f xml:space="preserve"> MIN(C2:C41)</f>
+        <f t="shared" si="1"/>
         <v>638</v>
       </c>
       <c r="D45">
-        <f xml:space="preserve"> MIN(D2:D41)</f>
+        <f t="shared" si="1"/>
         <v>639</v>
       </c>
       <c r="E45">
-        <f xml:space="preserve"> MIN(E2:E41)</f>
+        <f t="shared" si="1"/>
         <v>648</v>
       </c>
       <c r="F45">
-        <f xml:space="preserve"> MIN(F2:F41)</f>
+        <f t="shared" si="1"/>
         <v>578</v>
       </c>
       <c r="G45">
-        <f xml:space="preserve"> MIN(G2:G41)</f>
+        <f t="shared" si="1"/>
         <v>647</v>
       </c>
       <c r="H45">
-        <f xml:space="preserve"> MIN(H2:H41)</f>
+        <f t="shared" si="1"/>
         <v>647</v>
       </c>
       <c r="I45">
-        <f xml:space="preserve"> MIN(I2:I41)</f>
+        <f t="shared" si="1"/>
         <v>631</v>
       </c>
       <c r="J45">
-        <f xml:space="preserve"> MIN(J2:J41)</f>
+        <f t="shared" si="1"/>
         <v>472</v>
       </c>
       <c r="K45">
-        <f xml:space="preserve"> MIN(K2:K41)</f>
+        <f t="shared" si="1"/>
         <v>647</v>
       </c>
       <c r="L45">
-        <f xml:space="preserve"> MIN(L2:L41)</f>
+        <f t="shared" si="1"/>
         <v>580</v>
       </c>
       <c r="M45">
-        <f xml:space="preserve"> MIN(M2:M41)</f>
+        <f t="shared" si="1"/>
         <v>636</v>
       </c>
       <c r="N45">
-        <f xml:space="preserve"> MIN(N2:N41)</f>
+        <f t="shared" si="1"/>
         <v>622</v>
       </c>
       <c r="O45">
-        <f xml:space="preserve"> MIN(O2:O41)</f>
+        <f t="shared" si="1"/>
         <v>644</v>
       </c>
       <c r="P45">
-        <f xml:space="preserve"> MIN(P2:P41)</f>
+        <f t="shared" si="1"/>
         <v>624</v>
       </c>
       <c r="Q45">
-        <f xml:space="preserve"> MIN(Q2:Q41)</f>
+        <f t="shared" si="1"/>
         <v>638</v>
       </c>
       <c r="R45">
-        <f xml:space="preserve"> MIN(R2:R41)</f>
+        <f t="shared" si="1"/>
         <v>612</v>
       </c>
       <c r="S45">
-        <f xml:space="preserve"> MIN(S2:S41)</f>
+        <f t="shared" si="1"/>
         <v>648</v>
       </c>
       <c r="T45">
-        <f xml:space="preserve"> MIN(T2:T41)</f>
+        <f t="shared" si="1"/>
         <v>597</v>
       </c>
       <c r="U45">
-        <f xml:space="preserve"> MIN(U2:U41)</f>
+        <f t="shared" si="1"/>
         <v>629</v>
       </c>
       <c r="V45">
-        <f xml:space="preserve"> MIN(V2:V41)</f>
+        <f t="shared" si="1"/>
         <v>526</v>
       </c>
       <c r="W45">
-        <f xml:space="preserve"> MIN(W2:W41)</f>
+        <f t="shared" si="1"/>
         <v>565</v>
       </c>
       <c r="X45">
-        <f xml:space="preserve"> MIN(X2:X41)</f>
+        <f t="shared" si="1"/>
         <v>516</v>
       </c>
       <c r="Y45">
-        <f xml:space="preserve"> MIN(Y2:Y41)</f>
+        <f t="shared" si="1"/>
         <v>639</v>
       </c>
       <c r="Z45">
-        <f xml:space="preserve"> MIN(Z2:Z41)</f>
+        <f t="shared" si="1"/>
         <v>582</v>
       </c>
       <c r="AA45">
-        <f xml:space="preserve"> MIN(AA2:AA41)</f>
+        <f t="shared" si="1"/>
         <v>634</v>
       </c>
       <c r="AB45">
-        <f xml:space="preserve"> MIN(AB2:AB41)</f>
+        <f t="shared" si="1"/>
         <v>583</v>
       </c>
       <c r="AC45">
-        <f xml:space="preserve"> MIN(AC2:AC41)</f>
+        <f t="shared" si="1"/>
         <v>606</v>
       </c>
       <c r="AD45">
-        <f xml:space="preserve"> MIN(AD2:AD41)</f>
+        <f t="shared" si="1"/>
         <v>562</v>
       </c>
       <c r="AE45">
-        <f xml:space="preserve"> MIN(AE2:AE41)</f>
+        <f t="shared" si="1"/>
         <v>646</v>
       </c>
       <c r="AF45">
-        <f xml:space="preserve"> MIN(AF2:AF41)</f>
+        <f t="shared" si="1"/>
         <v>622</v>
       </c>
       <c r="AG45">
-        <f xml:space="preserve"> MIN(AG2:AG41)</f>
+        <f t="shared" si="1"/>
         <v>627</v>
       </c>
       <c r="AH45">
-        <f xml:space="preserve"> MIN(AH2:AH41)</f>
+        <f t="shared" si="1"/>
         <v>470</v>
       </c>
       <c r="AI45">
-        <f xml:space="preserve"> MIN(AI2:AI41)</f>
+        <f t="shared" si="1"/>
         <v>637</v>
       </c>
       <c r="AJ45">
-        <f xml:space="preserve"> MIN(AJ2:AJ41)</f>
+        <f t="shared" si="1"/>
         <v>650</v>
       </c>
       <c r="AK45">
-        <f xml:space="preserve"> MIN(AK2:AK41)</f>
+        <f t="shared" si="1"/>
         <v>633</v>
       </c>
       <c r="AL45">
-        <f xml:space="preserve"> MIN(AL2:AL41)</f>
+        <f t="shared" si="1"/>
         <v>638</v>
       </c>
       <c r="AM45">
-        <f xml:space="preserve"> MIN(AM2:AM41)</f>
+        <f t="shared" si="1"/>
         <v>580</v>
       </c>
       <c r="AN45">
-        <f xml:space="preserve"> MIN(AN2:AN41)</f>
+        <f t="shared" si="1"/>
         <v>654</v>
       </c>
       <c r="AO45">
-        <f xml:space="preserve"> MIN(AO2:AO41)</f>
+        <f t="shared" si="1"/>
         <v>620</v>
       </c>
       <c r="AP45">
-        <f xml:space="preserve"> MIN(AP2:AP41)</f>
+        <f t="shared" si="1"/>
         <v>532</v>
       </c>
       <c r="AQ45">
-        <f xml:space="preserve"> MIN(AQ2:AQ41)</f>
+        <f t="shared" si="1"/>
         <v>572</v>
       </c>
       <c r="AR45">
-        <f xml:space="preserve"> MIN(AR2:AR41)</f>
+        <f t="shared" si="1"/>
         <v>615</v>
       </c>
       <c r="AS45">
-        <f xml:space="preserve"> MIN(AS2:AS41)</f>
+        <f t="shared" si="1"/>
         <v>631</v>
       </c>
       <c r="AT45">
-        <f xml:space="preserve"> MIN(AT2:AT41)</f>
+        <f t="shared" si="1"/>
         <v>488</v>
       </c>
       <c r="AU45">
-        <f xml:space="preserve"> MIN(AU2:AU41)</f>
+        <f t="shared" si="1"/>
         <v>632</v>
       </c>
       <c r="AV45">
-        <f xml:space="preserve"> MIN(AV2:AV41)</f>
+        <f t="shared" si="1"/>
         <v>549</v>
       </c>
       <c r="AW45">
-        <f xml:space="preserve"> MIN(AW2:AW41)</f>
+        <f t="shared" si="1"/>
         <v>635</v>
       </c>
     </row>
@@ -21512,195 +21740,195 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <f xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
+        <f t="shared" ref="B46:AW46" si="2" xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
         <v>29</v>
       </c>
       <c r="C46">
-        <f xml:space="preserve"> MATCH(C44,C2:C41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D46">
-        <f xml:space="preserve"> MATCH(D44,D2:D41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E46">
-        <f xml:space="preserve"> MATCH(E44,E2:E41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F46">
-        <f xml:space="preserve"> MATCH(F44,F2:F41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G46">
-        <f xml:space="preserve"> MATCH(G44,G2:G41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H46">
-        <f xml:space="preserve"> MATCH(H44,H2:H41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I46">
-        <f xml:space="preserve"> MATCH(I44,I2:I41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J46">
-        <f xml:space="preserve"> MATCH(J44,J2:J41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K46">
-        <f xml:space="preserve"> MATCH(K44,K2:K41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L46">
-        <f xml:space="preserve"> MATCH(L44,L2:L41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M46">
-        <f xml:space="preserve"> MATCH(M44,M2:M41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N46">
-        <f xml:space="preserve"> MATCH(N44,N2:N41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O46">
-        <f xml:space="preserve"> MATCH(O44,O2:O41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P46">
-        <f xml:space="preserve"> MATCH(P44,P2:P41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q46">
-        <f xml:space="preserve"> MATCH(Q44,Q2:Q41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R46">
-        <f xml:space="preserve"> MATCH(R44,R2:R41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="S46">
-        <f xml:space="preserve"> MATCH(S44,S2:S41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="T46">
-        <f xml:space="preserve"> MATCH(T44,T2:T41,0)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="U46">
-        <f xml:space="preserve"> MATCH(U44,U2:U41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="V46">
-        <f xml:space="preserve"> MATCH(V44,V2:V41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W46">
-        <f xml:space="preserve"> MATCH(W44,W2:W41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="X46">
-        <f xml:space="preserve"> MATCH(X44,X2:X41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Y46">
-        <f xml:space="preserve"> MATCH(Y44,Y2:Y41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Z46">
-        <f xml:space="preserve"> MATCH(Z44,Z2:Z41,0)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="AA46">
-        <f xml:space="preserve"> MATCH(AA44,AA2:AA41,0)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="AB46">
-        <f xml:space="preserve"> MATCH(AB44,AB2:AB41,0)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AC46">
-        <f xml:space="preserve"> MATCH(AC44,AC2:AC41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AD46">
-        <f xml:space="preserve"> MATCH(AD44,AD2:AD41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AE46">
-        <f xml:space="preserve"> MATCH(AE44,AE2:AE41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AF46">
-        <f xml:space="preserve"> MATCH(AF44,AF2:AF41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AG46">
-        <f xml:space="preserve"> MATCH(AG44,AG2:AG41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AH46">
-        <f xml:space="preserve"> MATCH(AH44,AH2:AH41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AI46">
-        <f xml:space="preserve"> MATCH(AI44,AI2:AI41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AJ46">
-        <f xml:space="preserve"> MATCH(AJ44,AJ2:AJ41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AK46">
-        <f xml:space="preserve"> MATCH(AK44,AK2:AK41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AL46">
-        <f xml:space="preserve"> MATCH(AL44,AL2:AL41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AM46">
-        <f xml:space="preserve"> MATCH(AM44,AM2:AM41,0)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AN46">
-        <f xml:space="preserve"> MATCH(AN44,AN2:AN41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AO46">
-        <f xml:space="preserve"> MATCH(AO44,AO2:AO41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AP46">
-        <f xml:space="preserve"> MATCH(AP44,AP2:AP41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AQ46">
-        <f xml:space="preserve"> MATCH(AQ44,AQ2:AQ41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AR46">
-        <f xml:space="preserve"> MATCH(AR44,AR2:AR41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AS46">
-        <f xml:space="preserve"> MATCH(AS44,AS2:AS41,0)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="AT46">
-        <f xml:space="preserve"> MATCH(AT44,AT2:AT41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AU46">
-        <f xml:space="preserve"> MATCH(AU44,AU2:AU41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AV46">
-        <f xml:space="preserve"> MATCH(AV44,AV2:AV41,0)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="AW46">
-        <f xml:space="preserve"> MATCH(AW44,AW2:AW41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -27708,195 +27936,195 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <f xml:space="preserve"> MAX(B2:B41)</f>
+        <f t="shared" ref="B44:AW44" si="0" xml:space="preserve"> MAX(B2:B41)</f>
         <v>653</v>
       </c>
       <c r="C44">
-        <f xml:space="preserve"> MAX(C2:C41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="D44">
-        <f xml:space="preserve"> MAX(D2:D41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="E44">
-        <f xml:space="preserve"> MAX(E2:E41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="F44">
-        <f xml:space="preserve"> MAX(F2:F41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="G44">
-        <f xml:space="preserve"> MAX(G2:G41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="H44">
-        <f xml:space="preserve"> MAX(H2:H41)</f>
+        <f t="shared" si="0"/>
         <v>641</v>
       </c>
       <c r="I44">
-        <f xml:space="preserve"> MAX(I2:I41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="J44">
-        <f xml:space="preserve"> MAX(J2:J41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="K44">
-        <f xml:space="preserve"> MAX(K2:K41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="L44">
-        <f xml:space="preserve"> MAX(L2:L41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="M44">
-        <f xml:space="preserve"> MAX(M2:M41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="N44">
-        <f xml:space="preserve"> MAX(N2:N41)</f>
+        <f t="shared" si="0"/>
         <v>568</v>
       </c>
       <c r="O44">
-        <f xml:space="preserve"> MAX(O2:O41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="P44">
-        <f xml:space="preserve"> MAX(P2:P41)</f>
+        <f t="shared" si="0"/>
         <v>647</v>
       </c>
       <c r="Q44">
-        <f xml:space="preserve"> MAX(Q2:Q41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="R44">
-        <f xml:space="preserve"> MAX(R2:R41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="S44">
-        <f xml:space="preserve"> MAX(S2:S41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="T44">
-        <f xml:space="preserve"> MAX(T2:T41)</f>
+        <f t="shared" si="0"/>
         <v>627</v>
       </c>
       <c r="U44">
-        <f xml:space="preserve"> MAX(U2:U41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="V44">
-        <f xml:space="preserve"> MAX(V2:V41)</f>
+        <f t="shared" si="0"/>
         <v>590</v>
       </c>
       <c r="W44">
-        <f xml:space="preserve"> MAX(W2:W41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="X44">
-        <f xml:space="preserve"> MAX(X2:X41)</f>
+        <f t="shared" si="0"/>
         <v>646</v>
       </c>
       <c r="Y44">
-        <f xml:space="preserve"> MAX(Y2:Y41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="Z44">
-        <f xml:space="preserve"> MAX(Z2:Z41)</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
       <c r="AA44">
-        <f xml:space="preserve"> MAX(AA2:AA41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AB44">
-        <f xml:space="preserve"> MAX(AB2:AB41)</f>
+        <f t="shared" si="0"/>
         <v>623</v>
       </c>
       <c r="AC44">
-        <f xml:space="preserve"> MAX(AC2:AC41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AD44">
-        <f xml:space="preserve"> MAX(AD2:AD41)</f>
+        <f t="shared" si="0"/>
         <v>620</v>
       </c>
       <c r="AE44">
-        <f xml:space="preserve"> MAX(AE2:AE41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AF44">
-        <f xml:space="preserve"> MAX(AF2:AF41)</f>
+        <f t="shared" si="0"/>
         <v>610</v>
       </c>
       <c r="AG44">
-        <f xml:space="preserve"> MAX(AG2:AG41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AH44">
-        <f xml:space="preserve"> MAX(AH2:AH41)</f>
+        <f t="shared" si="0"/>
         <v>647</v>
       </c>
       <c r="AI44">
-        <f xml:space="preserve"> MAX(AI2:AI41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AJ44">
-        <f xml:space="preserve"> MAX(AJ2:AJ41)</f>
+        <f t="shared" si="0"/>
         <v>634</v>
       </c>
       <c r="AK44">
-        <f xml:space="preserve"> MAX(AK2:AK41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AL44">
-        <f xml:space="preserve"> MAX(AL2:AL41)</f>
+        <f t="shared" si="0"/>
         <v>626</v>
       </c>
       <c r="AM44">
-        <f xml:space="preserve"> MAX(AM2:AM41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AN44">
-        <f xml:space="preserve"> MAX(AN2:AN41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AO44">
-        <f xml:space="preserve"> MAX(AO2:AO41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AP44">
-        <f xml:space="preserve"> MAX(AP2:AP41)</f>
+        <f t="shared" si="0"/>
         <v>639</v>
       </c>
       <c r="AQ44">
-        <f xml:space="preserve"> MAX(AQ2:AQ41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AR44">
-        <f xml:space="preserve"> MAX(AR2:AR41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AS44">
-        <f xml:space="preserve"> MAX(AS2:AS41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AT44">
-        <f xml:space="preserve"> MAX(AT2:AT41)</f>
+        <f t="shared" si="0"/>
         <v>638</v>
       </c>
       <c r="AU44">
-        <f xml:space="preserve"> MAX(AU2:AU41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AV44">
-        <f xml:space="preserve"> MAX(AV2:AV41)</f>
+        <f t="shared" si="0"/>
         <v>635</v>
       </c>
       <c r="AW44">
-        <f xml:space="preserve"> MAX(AW2:AW41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
     </row>
@@ -27905,195 +28133,195 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <f xml:space="preserve"> MIN(B2:B41)</f>
+        <f t="shared" ref="B45:AW45" si="1" xml:space="preserve"> MIN(B2:B41)</f>
         <v>645</v>
       </c>
       <c r="C45">
-        <f xml:space="preserve"> MIN(C2:C41)</f>
+        <f t="shared" si="1"/>
         <v>645</v>
       </c>
       <c r="D45">
-        <f xml:space="preserve"> MIN(D2:D41)</f>
+        <f t="shared" si="1"/>
         <v>589</v>
       </c>
       <c r="E45">
-        <f xml:space="preserve"> MIN(E2:E41)</f>
+        <f t="shared" si="1"/>
         <v>584</v>
       </c>
       <c r="F45">
-        <f xml:space="preserve"> MIN(F2:F41)</f>
+        <f t="shared" si="1"/>
         <v>607</v>
       </c>
       <c r="G45">
-        <f xml:space="preserve"> MIN(G2:G41)</f>
+        <f t="shared" si="1"/>
         <v>648</v>
       </c>
       <c r="H45">
-        <f xml:space="preserve"> MIN(H2:H41)</f>
+        <f t="shared" si="1"/>
         <v>610</v>
       </c>
       <c r="I45">
-        <f xml:space="preserve"> MIN(I2:I41)</f>
+        <f t="shared" si="1"/>
         <v>624</v>
       </c>
       <c r="J45">
-        <f xml:space="preserve"> MIN(J2:J41)</f>
+        <f t="shared" si="1"/>
         <v>567</v>
       </c>
       <c r="K45">
-        <f xml:space="preserve"> MIN(K2:K41)</f>
+        <f t="shared" si="1"/>
         <v>619</v>
       </c>
       <c r="L45">
-        <f xml:space="preserve"> MIN(L2:L41)</f>
+        <f t="shared" si="1"/>
         <v>615</v>
       </c>
       <c r="M45">
-        <f xml:space="preserve"> MIN(M2:M41)</f>
+        <f t="shared" si="1"/>
         <v>626</v>
       </c>
       <c r="N45">
-        <f xml:space="preserve"> MIN(N2:N41)</f>
+        <f t="shared" si="1"/>
         <v>565</v>
       </c>
       <c r="O45">
-        <f xml:space="preserve"> MIN(O2:O41)</f>
+        <f t="shared" si="1"/>
         <v>587</v>
       </c>
       <c r="P45">
-        <f xml:space="preserve"> MIN(P2:P41)</f>
+        <f t="shared" si="1"/>
         <v>646</v>
       </c>
       <c r="Q45">
-        <f xml:space="preserve"> MIN(Q2:Q41)</f>
+        <f t="shared" si="1"/>
         <v>618</v>
       </c>
       <c r="R45">
-        <f xml:space="preserve"> MIN(R2:R41)</f>
+        <f t="shared" si="1"/>
         <v>586</v>
       </c>
       <c r="S45">
-        <f xml:space="preserve"> MIN(S2:S41)</f>
+        <f t="shared" si="1"/>
         <v>619</v>
       </c>
       <c r="T45">
-        <f xml:space="preserve"> MIN(T2:T41)</f>
+        <f t="shared" si="1"/>
         <v>501</v>
       </c>
       <c r="U45">
-        <f xml:space="preserve"> MIN(U2:U41)</f>
+        <f t="shared" si="1"/>
         <v>625</v>
       </c>
       <c r="V45">
-        <f xml:space="preserve"> MIN(V2:V41)</f>
+        <f t="shared" si="1"/>
         <v>566</v>
       </c>
       <c r="W45">
-        <f xml:space="preserve"> MIN(W2:W41)</f>
+        <f t="shared" si="1"/>
         <v>653</v>
       </c>
       <c r="X45">
-        <f xml:space="preserve"> MIN(X2:X41)</f>
+        <f t="shared" si="1"/>
         <v>596</v>
       </c>
       <c r="Y45">
-        <f xml:space="preserve"> MIN(Y2:Y41)</f>
+        <f t="shared" si="1"/>
         <v>620</v>
       </c>
       <c r="Z45">
-        <f xml:space="preserve"> MIN(Z2:Z41)</f>
+        <f t="shared" si="1"/>
         <v>652</v>
       </c>
       <c r="AA45">
-        <f xml:space="preserve"> MIN(AA2:AA41)</f>
+        <f t="shared" si="1"/>
         <v>654</v>
       </c>
       <c r="AB45">
-        <f xml:space="preserve"> MIN(AB2:AB41)</f>
+        <f t="shared" si="1"/>
         <v>598</v>
       </c>
       <c r="AC45">
-        <f xml:space="preserve"> MIN(AC2:AC41)</f>
+        <f t="shared" si="1"/>
         <v>611</v>
       </c>
       <c r="AD45">
-        <f xml:space="preserve"> MIN(AD2:AD41)</f>
+        <f t="shared" si="1"/>
         <v>573</v>
       </c>
       <c r="AE45">
-        <f xml:space="preserve"> MIN(AE2:AE41)</f>
+        <f t="shared" si="1"/>
         <v>642</v>
       </c>
       <c r="AF45">
-        <f xml:space="preserve"> MIN(AF2:AF41)</f>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="AG45">
-        <f xml:space="preserve"> MIN(AG2:AG41)</f>
+        <f t="shared" si="1"/>
         <v>585</v>
       </c>
       <c r="AH45">
-        <f xml:space="preserve"> MIN(AH2:AH41)</f>
+        <f t="shared" si="1"/>
         <v>568</v>
       </c>
       <c r="AI45">
-        <f xml:space="preserve"> MIN(AI2:AI41)</f>
+        <f t="shared" si="1"/>
         <v>635</v>
       </c>
       <c r="AJ45">
-        <f xml:space="preserve"> MIN(AJ2:AJ41)</f>
+        <f t="shared" si="1"/>
         <v>634</v>
       </c>
       <c r="AK45">
-        <f xml:space="preserve"> MIN(AK2:AK41)</f>
+        <f t="shared" si="1"/>
         <v>610</v>
       </c>
       <c r="AL45">
-        <f xml:space="preserve"> MIN(AL2:AL41)</f>
+        <f t="shared" si="1"/>
         <v>605</v>
       </c>
       <c r="AM45">
-        <f xml:space="preserve"> MIN(AM2:AM41)</f>
+        <f t="shared" si="1"/>
         <v>633</v>
       </c>
       <c r="AN45">
-        <f xml:space="preserve"> MIN(AN2:AN41)</f>
+        <f t="shared" si="1"/>
         <v>581</v>
       </c>
       <c r="AO45">
-        <f xml:space="preserve"> MIN(AO2:AO41)</f>
+        <f t="shared" si="1"/>
         <v>628</v>
       </c>
       <c r="AP45">
-        <f xml:space="preserve"> MIN(AP2:AP41)</f>
+        <f t="shared" si="1"/>
         <v>558</v>
       </c>
       <c r="AQ45">
-        <f xml:space="preserve"> MIN(AQ2:AQ41)</f>
+        <f t="shared" si="1"/>
         <v>645</v>
       </c>
       <c r="AR45">
-        <f xml:space="preserve"> MIN(AR2:AR41)</f>
+        <f t="shared" si="1"/>
         <v>494</v>
       </c>
       <c r="AS45">
-        <f xml:space="preserve"> MIN(AS2:AS41)</f>
+        <f t="shared" si="1"/>
         <v>611</v>
       </c>
       <c r="AT45">
-        <f xml:space="preserve"> MIN(AT2:AT41)</f>
+        <f t="shared" si="1"/>
         <v>621</v>
       </c>
       <c r="AU45">
-        <f xml:space="preserve"> MIN(AU2:AU41)</f>
+        <f t="shared" si="1"/>
         <v>615</v>
       </c>
       <c r="AV45">
-        <f xml:space="preserve"> MIN(AV2:AV41)</f>
+        <f t="shared" si="1"/>
         <v>611</v>
       </c>
       <c r="AW45">
-        <f xml:space="preserve"> MIN(AW2:AW41)</f>
+        <f t="shared" si="1"/>
         <v>641</v>
       </c>
     </row>
@@ -28102,195 +28330,195 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <f xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
+        <f t="shared" ref="B46:AW46" si="2" xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
         <v>3</v>
       </c>
       <c r="C46">
-        <f xml:space="preserve"> MATCH(C44,C2:C41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D46">
-        <f xml:space="preserve"> MATCH(D44,D2:D41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E46">
-        <f xml:space="preserve"> MATCH(E44,E2:E41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F46">
-        <f xml:space="preserve"> MATCH(F44,F2:F41,0)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="G46">
-        <f xml:space="preserve"> MATCH(G44,G2:G41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H46">
-        <f xml:space="preserve"> MATCH(H44,H2:H41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I46">
-        <f xml:space="preserve"> MATCH(I44,I2:I41,0)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J46">
-        <f xml:space="preserve"> MATCH(J44,J2:J41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K46">
-        <f xml:space="preserve"> MATCH(K44,K2:K41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L46">
-        <f xml:space="preserve"> MATCH(L44,L2:L41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M46">
-        <f xml:space="preserve"> MATCH(M44,M2:M41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N46">
-        <f xml:space="preserve"> MATCH(N44,N2:N41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O46">
-        <f xml:space="preserve"> MATCH(O44,O2:O41,0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="P46">
-        <f xml:space="preserve"> MATCH(P44,P2:P41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q46">
-        <f xml:space="preserve"> MATCH(Q44,Q2:Q41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="R46">
-        <f xml:space="preserve"> MATCH(R44,R2:R41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="S46">
-        <f xml:space="preserve"> MATCH(S44,S2:S41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="T46">
-        <f xml:space="preserve"> MATCH(T44,T2:T41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="U46">
-        <f xml:space="preserve"> MATCH(U44,U2:U41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="V46">
-        <f xml:space="preserve"> MATCH(V44,V2:V41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W46">
-        <f xml:space="preserve"> MATCH(W44,W2:W41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X46">
-        <f xml:space="preserve"> MATCH(X44,X2:X41,0)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="Y46">
-        <f xml:space="preserve"> MATCH(Y44,Y2:Y41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Z46">
-        <f xml:space="preserve"> MATCH(Z44,Z2:Z41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA46">
-        <f xml:space="preserve"> MATCH(AA44,AA2:AA41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB46">
-        <f xml:space="preserve"> MATCH(AB44,AB2:AB41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AC46">
-        <f xml:space="preserve"> MATCH(AC44,AC2:AC41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AD46">
-        <f xml:space="preserve"> MATCH(AD44,AD2:AD41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE46">
-        <f xml:space="preserve"> MATCH(AE44,AE2:AE41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF46">
-        <f xml:space="preserve"> MATCH(AF44,AF2:AF41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AG46">
-        <f xml:space="preserve"> MATCH(AG44,AG2:AG41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AH46">
-        <f xml:space="preserve"> MATCH(AH44,AH2:AH41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AI46">
-        <f xml:space="preserve"> MATCH(AI44,AI2:AI41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AJ46">
-        <f xml:space="preserve"> MATCH(AJ44,AJ2:AJ41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AK46">
-        <f xml:space="preserve"> MATCH(AK44,AK2:AK41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AL46">
-        <f xml:space="preserve"> MATCH(AL44,AL2:AL41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AM46">
-        <f xml:space="preserve"> MATCH(AM44,AM2:AM41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AN46">
-        <f xml:space="preserve"> MATCH(AN44,AN2:AN41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AO46">
-        <f xml:space="preserve"> MATCH(AO44,AO2:AO41,0)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AP46">
-        <f xml:space="preserve"> MATCH(AP44,AP2:AP41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AQ46">
-        <f xml:space="preserve"> MATCH(AQ44,AQ2:AQ41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AR46">
-        <f xml:space="preserve"> MATCH(AR44,AR2:AR41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AS46">
-        <f xml:space="preserve"> MATCH(AS44,AS2:AS41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AT46">
-        <f xml:space="preserve"> MATCH(AT44,AT2:AT41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AU46">
-        <f xml:space="preserve"> MATCH(AU44,AU2:AU41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AV46">
-        <f xml:space="preserve"> MATCH(AV44,AV2:AV41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AW46">
-        <f xml:space="preserve"> MATCH(AW44,AW2:AW41,0)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -34298,195 +34526,195 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <f xml:space="preserve"> MAX(B2:B41)</f>
+        <f t="shared" ref="B44:AW44" si="0" xml:space="preserve"> MAX(B2:B41)</f>
         <v>641</v>
       </c>
       <c r="C44">
-        <f xml:space="preserve"> MAX(C2:C41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="D44">
-        <f xml:space="preserve"> MAX(D2:D41)</f>
+        <f t="shared" si="0"/>
         <v>649</v>
       </c>
       <c r="E44">
-        <f xml:space="preserve"> MAX(E2:E41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="F44">
-        <f xml:space="preserve"> MAX(F2:F41)</f>
+        <f t="shared" si="0"/>
         <v>631</v>
       </c>
       <c r="G44">
-        <f xml:space="preserve"> MAX(G2:G41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="H44">
-        <f xml:space="preserve"> MAX(H2:H41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="I44">
-        <f xml:space="preserve"> MAX(I2:I41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="J44">
-        <f xml:space="preserve"> MAX(J2:J41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="K44">
-        <f xml:space="preserve"> MAX(K2:K41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="L44">
-        <f xml:space="preserve"> MAX(L2:L41)</f>
+        <f t="shared" si="0"/>
         <v>611</v>
       </c>
       <c r="M44">
-        <f xml:space="preserve"> MAX(M2:M41)</f>
+        <f t="shared" si="0"/>
         <v>649</v>
       </c>
       <c r="N44">
-        <f xml:space="preserve"> MAX(N2:N41)</f>
+        <f t="shared" si="0"/>
         <v>639</v>
       </c>
       <c r="O44">
-        <f xml:space="preserve"> MAX(O2:O41)</f>
+        <f t="shared" si="0"/>
         <v>650</v>
       </c>
       <c r="P44">
-        <f xml:space="preserve"> MAX(P2:P41)</f>
+        <f t="shared" si="0"/>
         <v>649</v>
       </c>
       <c r="Q44">
-        <f xml:space="preserve"> MAX(Q2:Q41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="R44">
-        <f xml:space="preserve"> MAX(R2:R41)</f>
+        <f t="shared" si="0"/>
         <v>648</v>
       </c>
       <c r="S44">
-        <f xml:space="preserve"> MAX(S2:S41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="T44">
-        <f xml:space="preserve"> MAX(T2:T41)</f>
+        <f t="shared" si="0"/>
         <v>565</v>
       </c>
       <c r="U44">
-        <f xml:space="preserve"> MAX(U2:U41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="V44">
-        <f xml:space="preserve"> MAX(V2:V41)</f>
+        <f t="shared" si="0"/>
         <v>644</v>
       </c>
       <c r="W44">
-        <f xml:space="preserve"> MAX(W2:W41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="X44">
-        <f xml:space="preserve"> MAX(X2:X41)</f>
+        <f t="shared" si="0"/>
         <v>651</v>
       </c>
       <c r="Y44">
-        <f xml:space="preserve"> MAX(Y2:Y41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="Z44">
-        <f xml:space="preserve"> MAX(Z2:Z41)</f>
+        <f t="shared" si="0"/>
         <v>647</v>
       </c>
       <c r="AA44">
-        <f xml:space="preserve"> MAX(AA2:AA41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AB44">
-        <f xml:space="preserve"> MAX(AB2:AB41)</f>
+        <f t="shared" si="0"/>
         <v>607</v>
       </c>
       <c r="AC44">
-        <f xml:space="preserve"> MAX(AC2:AC41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AD44">
-        <f xml:space="preserve"> MAX(AD2:AD41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="AE44">
-        <f xml:space="preserve"> MAX(AE2:AE41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AF44">
-        <f xml:space="preserve"> MAX(AF2:AF41)</f>
+        <f t="shared" si="0"/>
         <v>651</v>
       </c>
       <c r="AG44">
-        <f xml:space="preserve"> MAX(AG2:AG41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AH44">
-        <f xml:space="preserve"> MAX(AH2:AH41)</f>
+        <f t="shared" si="0"/>
         <v>642</v>
       </c>
       <c r="AI44">
-        <f xml:space="preserve"> MAX(AI2:AI41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AJ44">
-        <f xml:space="preserve"> MAX(AJ2:AJ41)</f>
+        <f t="shared" si="0"/>
         <v>641</v>
       </c>
       <c r="AK44">
-        <f xml:space="preserve"> MAX(AK2:AK41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AL44">
-        <f xml:space="preserve"> MAX(AL2:AL41)</f>
+        <f t="shared" si="0"/>
         <v>631</v>
       </c>
       <c r="AM44">
-        <f xml:space="preserve"> MAX(AM2:AM41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AN44">
-        <f xml:space="preserve"> MAX(AN2:AN41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AO44">
-        <f xml:space="preserve"> MAX(AO2:AO41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AP44">
-        <f xml:space="preserve"> MAX(AP2:AP41)</f>
+        <f t="shared" si="0"/>
         <v>641</v>
       </c>
       <c r="AQ44">
-        <f xml:space="preserve"> MAX(AQ2:AQ41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AR44">
-        <f xml:space="preserve"> MAX(AR2:AR41)</f>
+        <f t="shared" si="0"/>
         <v>649</v>
       </c>
       <c r="AS44">
-        <f xml:space="preserve"> MAX(AS2:AS41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AT44">
-        <f xml:space="preserve"> MAX(AT2:AT41)</f>
+        <f t="shared" si="0"/>
         <v>629</v>
       </c>
       <c r="AU44">
-        <f xml:space="preserve"> MAX(AU2:AU41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AV44">
-        <f xml:space="preserve"> MAX(AV2:AV41)</f>
+        <f t="shared" si="0"/>
         <v>647</v>
       </c>
       <c r="AW44">
-        <f xml:space="preserve"> MAX(AW2:AW41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
     </row>
@@ -34495,195 +34723,195 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <f xml:space="preserve"> MIN(B2:B41)</f>
+        <f t="shared" ref="B45:AW45" si="1" xml:space="preserve"> MIN(B2:B41)</f>
         <v>630</v>
       </c>
       <c r="C45">
-        <f xml:space="preserve"> MIN(C2:C41)</f>
+        <f t="shared" si="1"/>
         <v>631</v>
       </c>
       <c r="D45">
-        <f xml:space="preserve"> MIN(D2:D41)</f>
+        <f t="shared" si="1"/>
         <v>623</v>
       </c>
       <c r="E45">
-        <f xml:space="preserve"> MIN(E2:E41)</f>
+        <f t="shared" si="1"/>
         <v>604</v>
       </c>
       <c r="F45">
-        <f xml:space="preserve"> MIN(F2:F41)</f>
+        <f t="shared" si="1"/>
         <v>631</v>
       </c>
       <c r="G45">
-        <f xml:space="preserve"> MIN(G2:G41)</f>
+        <f t="shared" si="1"/>
         <v>654</v>
       </c>
       <c r="H45">
-        <f xml:space="preserve"> MIN(H2:H41)</f>
+        <f t="shared" si="1"/>
         <v>627</v>
       </c>
       <c r="I45">
-        <f xml:space="preserve"> MIN(I2:I41)</f>
+        <f t="shared" si="1"/>
         <v>651</v>
       </c>
       <c r="J45">
-        <f xml:space="preserve"> MIN(J2:J41)</f>
+        <f t="shared" si="1"/>
         <v>608</v>
       </c>
       <c r="K45">
-        <f xml:space="preserve"> MIN(K2:K41)</f>
+        <f t="shared" si="1"/>
         <v>631</v>
       </c>
       <c r="L45">
-        <f xml:space="preserve"> MIN(L2:L41)</f>
+        <f t="shared" si="1"/>
         <v>611</v>
       </c>
       <c r="M45">
-        <f xml:space="preserve"> MIN(M2:M41)</f>
+        <f t="shared" si="1"/>
         <v>607</v>
       </c>
       <c r="N45">
-        <f xml:space="preserve"> MIN(N2:N41)</f>
+        <f t="shared" si="1"/>
         <v>559</v>
       </c>
       <c r="O45">
-        <f xml:space="preserve"> MIN(O2:O41)</f>
+        <f t="shared" si="1"/>
         <v>605</v>
       </c>
       <c r="P45">
-        <f xml:space="preserve"> MIN(P2:P41)</f>
+        <f t="shared" si="1"/>
         <v>632</v>
       </c>
       <c r="Q45">
-        <f xml:space="preserve"> MIN(Q2:Q41)</f>
+        <f t="shared" si="1"/>
         <v>596</v>
       </c>
       <c r="R45">
-        <f xml:space="preserve"> MIN(R2:R41)</f>
+        <f t="shared" si="1"/>
         <v>555</v>
       </c>
       <c r="S45">
-        <f xml:space="preserve"> MIN(S2:S41)</f>
+        <f t="shared" si="1"/>
         <v>587</v>
       </c>
       <c r="T45">
-        <f xml:space="preserve"> MIN(T2:T41)</f>
+        <f t="shared" si="1"/>
         <v>435</v>
       </c>
       <c r="U45">
-        <f xml:space="preserve"> MIN(U2:U41)</f>
+        <f t="shared" si="1"/>
         <v>647</v>
       </c>
       <c r="V45">
-        <f xml:space="preserve"> MIN(V2:V41)</f>
+        <f t="shared" si="1"/>
         <v>604</v>
       </c>
       <c r="W45">
-        <f xml:space="preserve"> MIN(W2:W41)</f>
+        <f t="shared" si="1"/>
         <v>592</v>
       </c>
       <c r="X45">
-        <f xml:space="preserve"> MIN(X2:X41)</f>
+        <f t="shared" si="1"/>
         <v>577</v>
       </c>
       <c r="Y45">
-        <f xml:space="preserve"> MIN(Y2:Y41)</f>
+        <f t="shared" si="1"/>
         <v>622</v>
       </c>
       <c r="Z45">
-        <f xml:space="preserve"> MIN(Z2:Z41)</f>
+        <f t="shared" si="1"/>
         <v>615</v>
       </c>
       <c r="AA45">
-        <f xml:space="preserve"> MIN(AA2:AA41)</f>
+        <f t="shared" si="1"/>
         <v>638</v>
       </c>
       <c r="AB45">
-        <f xml:space="preserve"> MIN(AB2:AB41)</f>
+        <f t="shared" si="1"/>
         <v>565</v>
       </c>
       <c r="AC45">
-        <f xml:space="preserve"> MIN(AC2:AC41)</f>
+        <f t="shared" si="1"/>
         <v>655</v>
       </c>
       <c r="AD45">
-        <f xml:space="preserve"> MIN(AD2:AD41)</f>
+        <f t="shared" si="1"/>
         <v>651</v>
       </c>
       <c r="AE45">
-        <f xml:space="preserve"> MIN(AE2:AE41)</f>
+        <f t="shared" si="1"/>
         <v>611</v>
       </c>
       <c r="AF45">
-        <f xml:space="preserve"> MIN(AF2:AF41)</f>
+        <f t="shared" si="1"/>
         <v>651</v>
       </c>
       <c r="AG45">
-        <f xml:space="preserve"> MIN(AG2:AG41)</f>
+        <f t="shared" si="1"/>
         <v>623</v>
       </c>
       <c r="AH45">
-        <f xml:space="preserve"> MIN(AH2:AH41)</f>
+        <f t="shared" si="1"/>
         <v>580</v>
       </c>
       <c r="AI45">
-        <f xml:space="preserve"> MIN(AI2:AI41)</f>
+        <f t="shared" si="1"/>
         <v>606</v>
       </c>
       <c r="AJ45">
-        <f xml:space="preserve"> MIN(AJ2:AJ41)</f>
+        <f t="shared" si="1"/>
         <v>589</v>
       </c>
       <c r="AK45">
-        <f xml:space="preserve"> MIN(AK2:AK41)</f>
+        <f t="shared" si="1"/>
         <v>601</v>
       </c>
       <c r="AL45">
-        <f xml:space="preserve"> MIN(AL2:AL41)</f>
+        <f t="shared" si="1"/>
         <v>591</v>
       </c>
       <c r="AM45">
-        <f xml:space="preserve"> MIN(AM2:AM41)</f>
+        <f t="shared" si="1"/>
         <v>631</v>
       </c>
       <c r="AN45">
-        <f xml:space="preserve"> MIN(AN2:AN41)</f>
+        <f t="shared" si="1"/>
         <v>565</v>
       </c>
       <c r="AO45">
-        <f xml:space="preserve"> MIN(AO2:AO41)</f>
+        <f t="shared" si="1"/>
         <v>619</v>
       </c>
       <c r="AP45">
-        <f xml:space="preserve"> MIN(AP2:AP41)</f>
+        <f t="shared" si="1"/>
         <v>542</v>
       </c>
       <c r="AQ45">
-        <f xml:space="preserve"> MIN(AQ2:AQ41)</f>
+        <f t="shared" si="1"/>
         <v>602</v>
       </c>
       <c r="AR45">
-        <f xml:space="preserve"> MIN(AR2:AR41)</f>
+        <f t="shared" si="1"/>
         <v>508</v>
       </c>
       <c r="AS45">
-        <f xml:space="preserve"> MIN(AS2:AS41)</f>
+        <f t="shared" si="1"/>
         <v>632</v>
       </c>
       <c r="AT45">
-        <f xml:space="preserve"> MIN(AT2:AT41)</f>
+        <f t="shared" si="1"/>
         <v>536</v>
       </c>
       <c r="AU45">
-        <f xml:space="preserve"> MIN(AU2:AU41)</f>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="AV45">
-        <f xml:space="preserve"> MIN(AV2:AV41)</f>
+        <f t="shared" si="1"/>
         <v>605</v>
       </c>
       <c r="AW45">
-        <f xml:space="preserve"> MIN(AW2:AW41)</f>
+        <f t="shared" si="1"/>
         <v>644</v>
       </c>
     </row>
@@ -34692,195 +34920,195 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <f xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
+        <f t="shared" ref="B46:AW46" si="2" xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
         <v>14</v>
       </c>
       <c r="C46">
-        <f xml:space="preserve"> MATCH(C44,C2:C41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D46">
-        <f xml:space="preserve"> MATCH(D44,D2:D41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E46">
-        <f xml:space="preserve"> MATCH(E44,E2:E41,0)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F46">
-        <f xml:space="preserve"> MATCH(F44,F2:F41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G46">
-        <f xml:space="preserve"> MATCH(G44,G2:G41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H46">
-        <f xml:space="preserve"> MATCH(H44,H2:H41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I46">
-        <f xml:space="preserve"> MATCH(I44,I2:I41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J46">
-        <f xml:space="preserve"> MATCH(J44,J2:J41,0)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="K46">
-        <f xml:space="preserve"> MATCH(K44,K2:K41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L46">
-        <f xml:space="preserve"> MATCH(L44,L2:L41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M46">
-        <f xml:space="preserve"> MATCH(M44,M2:M41,0)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="N46">
-        <f xml:space="preserve"> MATCH(N44,N2:N41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O46">
-        <f xml:space="preserve"> MATCH(O44,O2:O41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="P46">
-        <f xml:space="preserve"> MATCH(P44,P2:P41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q46">
-        <f xml:space="preserve"> MATCH(Q44,Q2:Q41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="R46">
-        <f xml:space="preserve"> MATCH(R44,R2:R41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="S46">
-        <f xml:space="preserve"> MATCH(S44,S2:S41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="T46">
-        <f xml:space="preserve"> MATCH(T44,T2:T41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U46">
-        <f xml:space="preserve"> MATCH(U44,U2:U41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="V46">
-        <f xml:space="preserve"> MATCH(V44,V2:V41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W46">
-        <f xml:space="preserve"> MATCH(W44,W2:W41,0)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="X46">
-        <f xml:space="preserve"> MATCH(X44,X2:X41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Y46">
-        <f xml:space="preserve"> MATCH(Y44,Y2:Y41,0)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="Z46">
-        <f xml:space="preserve"> MATCH(Z44,Z2:Z41,0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AA46">
-        <f xml:space="preserve"> MATCH(AA44,AA2:AA41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB46">
-        <f xml:space="preserve"> MATCH(AB44,AB2:AB41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AC46">
-        <f xml:space="preserve"> MATCH(AC44,AC2:AC41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD46">
-        <f xml:space="preserve"> MATCH(AD44,AD2:AD41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE46">
-        <f xml:space="preserve"> MATCH(AE44,AE2:AE41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AF46">
-        <f xml:space="preserve"> MATCH(AF44,AF2:AF41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AG46">
-        <f xml:space="preserve"> MATCH(AG44,AG2:AG41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AH46">
-        <f xml:space="preserve"> MATCH(AH44,AH2:AH41,0)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AI46">
-        <f xml:space="preserve"> MATCH(AI44,AI2:AI41,0)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="AJ46">
-        <f xml:space="preserve"> MATCH(AJ44,AJ2:AJ41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AK46">
-        <f xml:space="preserve"> MATCH(AK44,AK2:AK41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL46">
-        <f xml:space="preserve"> MATCH(AL44,AL2:AL41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AM46">
-        <f xml:space="preserve"> MATCH(AM44,AM2:AM41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AN46">
-        <f xml:space="preserve"> MATCH(AN44,AN2:AN41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AO46">
-        <f xml:space="preserve"> MATCH(AO44,AO2:AO41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AP46">
-        <f xml:space="preserve"> MATCH(AP44,AP2:AP41,0)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="AQ46">
-        <f xml:space="preserve"> MATCH(AQ44,AQ2:AQ41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AR46">
-        <f xml:space="preserve"> MATCH(AR44,AR2:AR41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AS46">
-        <f xml:space="preserve"> MATCH(AS44,AS2:AS41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AT46">
-        <f xml:space="preserve"> MATCH(AT44,AT2:AT41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AU46">
-        <f xml:space="preserve"> MATCH(AU44,AU2:AU41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AV46">
-        <f xml:space="preserve"> MATCH(AV44,AV2:AV41,0)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="AW46">
-        <f xml:space="preserve"> MATCH(AW44,AW2:AW41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -40888,195 +41116,195 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <f xml:space="preserve"> MAX(B2:B41)</f>
+        <f t="shared" ref="B44:AW44" si="0" xml:space="preserve"> MAX(B2:B41)</f>
         <v>655</v>
       </c>
       <c r="C44">
-        <f xml:space="preserve"> MAX(C2:C41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="D44">
-        <f xml:space="preserve"> MAX(D2:D41)</f>
+        <f t="shared" si="0"/>
         <v>606</v>
       </c>
       <c r="E44">
-        <f xml:space="preserve"> MAX(E2:E41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="F44">
-        <f xml:space="preserve"> MAX(F2:F41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="G44">
-        <f xml:space="preserve"> MAX(G2:G41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="H44">
-        <f xml:space="preserve"> MAX(H2:H41)</f>
+        <f t="shared" si="0"/>
         <v>629</v>
       </c>
       <c r="I44">
-        <f xml:space="preserve"> MAX(I2:I41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="J44">
-        <f xml:space="preserve"> MAX(J2:J41)</f>
+        <f t="shared" si="0"/>
         <v>645</v>
       </c>
       <c r="K44">
-        <f xml:space="preserve"> MAX(K2:K41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="L44">
-        <f xml:space="preserve"> MAX(L2:L41)</f>
+        <f t="shared" si="0"/>
         <v>636</v>
       </c>
       <c r="M44">
-        <f xml:space="preserve"> MAX(M2:M41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="N44">
-        <f xml:space="preserve"> MAX(N2:N41)</f>
+        <f t="shared" si="0"/>
         <v>651</v>
       </c>
       <c r="O44">
-        <f xml:space="preserve"> MAX(O2:O41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="P44">
-        <f xml:space="preserve"> MAX(P2:P41)</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
       <c r="Q44">
-        <f xml:space="preserve"> MAX(Q2:Q41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="R44">
-        <f xml:space="preserve"> MAX(R2:R41)</f>
+        <f t="shared" si="0"/>
         <v>641</v>
       </c>
       <c r="S44">
-        <f xml:space="preserve"> MAX(S2:S41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="T44">
-        <f xml:space="preserve"> MAX(T2:T41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="U44">
-        <f xml:space="preserve"> MAX(U2:U41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="V44">
-        <f xml:space="preserve"> MAX(V2:V41)</f>
+        <f t="shared" si="0"/>
         <v>599</v>
       </c>
       <c r="W44">
-        <f xml:space="preserve"> MAX(W2:W41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="X44">
-        <f xml:space="preserve"> MAX(X2:X41)</f>
+        <f t="shared" si="0"/>
         <v>646</v>
       </c>
       <c r="Y44">
-        <f xml:space="preserve"> MAX(Y2:Y41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="Z44">
-        <f xml:space="preserve"> MAX(Z2:Z41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AA44">
-        <f xml:space="preserve"> MAX(AA2:AA41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AB44">
-        <f xml:space="preserve"> MAX(AB2:AB41)</f>
+        <f t="shared" si="0"/>
         <v>631</v>
       </c>
       <c r="AC44">
-        <f xml:space="preserve"> MAX(AC2:AC41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AD44">
-        <f xml:space="preserve"> MAX(AD2:AD41)</f>
+        <f t="shared" si="0"/>
         <v>632</v>
       </c>
       <c r="AE44">
-        <f xml:space="preserve"> MAX(AE2:AE41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AF44">
-        <f xml:space="preserve"> MAX(AF2:AF41)</f>
+        <f t="shared" si="0"/>
         <v>631</v>
       </c>
       <c r="AG44">
-        <f xml:space="preserve"> MAX(AG2:AG41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AH44">
-        <f xml:space="preserve"> MAX(AH2:AH41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AI44">
-        <f xml:space="preserve"> MAX(AI2:AI41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AJ44">
-        <f xml:space="preserve"> MAX(AJ2:AJ41)</f>
+        <f t="shared" si="0"/>
         <v>648</v>
       </c>
       <c r="AK44">
-        <f xml:space="preserve"> MAX(AK2:AK41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AL44">
-        <f xml:space="preserve"> MAX(AL2:AL41)</f>
+        <f t="shared" si="0"/>
         <v>582</v>
       </c>
       <c r="AM44">
-        <f xml:space="preserve"> MAX(AM2:AM41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AN44">
-        <f xml:space="preserve"> MAX(AN2:AN41)</f>
+        <f t="shared" si="0"/>
         <v>644</v>
       </c>
       <c r="AO44">
-        <f xml:space="preserve"> MAX(AO2:AO41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AP44">
-        <f xml:space="preserve"> MAX(AP2:AP41)</f>
+        <f t="shared" si="0"/>
         <v>650</v>
       </c>
       <c r="AQ44">
-        <f xml:space="preserve"> MAX(AQ2:AQ41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AR44">
-        <f xml:space="preserve"> MAX(AR2:AR41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AS44">
-        <f xml:space="preserve"> MAX(AS2:AS41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AT44">
-        <f xml:space="preserve"> MAX(AT2:AT41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AU44">
-        <f xml:space="preserve"> MAX(AU2:AU41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AV44">
-        <f xml:space="preserve"> MAX(AV2:AV41)</f>
+        <f t="shared" si="0"/>
         <v>650</v>
       </c>
       <c r="AW44">
-        <f xml:space="preserve"> MAX(AW2:AW41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
     </row>
@@ -41085,195 +41313,195 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <f xml:space="preserve"> MIN(B2:B41)</f>
+        <f t="shared" ref="B45:AW45" si="1" xml:space="preserve"> MIN(B2:B41)</f>
         <v>548</v>
       </c>
       <c r="C45">
-        <f xml:space="preserve"> MIN(C2:C41)</f>
+        <f t="shared" si="1"/>
         <v>605</v>
       </c>
       <c r="D45">
-        <f xml:space="preserve"> MIN(D2:D41)</f>
+        <f t="shared" si="1"/>
         <v>606</v>
       </c>
       <c r="E45">
-        <f xml:space="preserve"> MIN(E2:E41)</f>
+        <f t="shared" si="1"/>
         <v>621</v>
       </c>
       <c r="F45">
-        <f xml:space="preserve"> MIN(F2:F41)</f>
+        <f t="shared" si="1"/>
         <v>581</v>
       </c>
       <c r="G45">
-        <f xml:space="preserve"> MIN(G2:G41)</f>
+        <f t="shared" si="1"/>
         <v>611</v>
       </c>
       <c r="H45">
-        <f xml:space="preserve"> MIN(H2:H41)</f>
+        <f t="shared" si="1"/>
         <v>598</v>
       </c>
       <c r="I45">
-        <f xml:space="preserve"> MIN(I2:I41)</f>
+        <f t="shared" si="1"/>
         <v>614</v>
       </c>
       <c r="J45">
-        <f xml:space="preserve"> MIN(J2:J41)</f>
+        <f t="shared" si="1"/>
         <v>585</v>
       </c>
       <c r="K45">
-        <f xml:space="preserve"> MIN(K2:K41)</f>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="L45">
-        <f xml:space="preserve"> MIN(L2:L41)</f>
+        <f t="shared" si="1"/>
         <v>603</v>
       </c>
       <c r="M45">
-        <f xml:space="preserve"> MIN(M2:M41)</f>
+        <f t="shared" si="1"/>
         <v>621</v>
       </c>
       <c r="N45">
-        <f xml:space="preserve"> MIN(N2:N41)</f>
+        <f t="shared" si="1"/>
         <v>651</v>
       </c>
       <c r="O45">
-        <f xml:space="preserve"> MIN(O2:O41)</f>
+        <f t="shared" si="1"/>
         <v>645</v>
       </c>
       <c r="P45">
-        <f xml:space="preserve"> MIN(P2:P41)</f>
+        <f t="shared" si="1"/>
         <v>652</v>
       </c>
       <c r="Q45">
-        <f xml:space="preserve"> MIN(Q2:Q41)</f>
+        <f t="shared" si="1"/>
         <v>633</v>
       </c>
       <c r="R45">
-        <f xml:space="preserve"> MIN(R2:R41)</f>
+        <f t="shared" si="1"/>
         <v>552</v>
       </c>
       <c r="S45">
-        <f xml:space="preserve"> MIN(S2:S41)</f>
+        <f t="shared" si="1"/>
         <v>627</v>
       </c>
       <c r="T45">
-        <f xml:space="preserve"> MIN(T2:T41)</f>
+        <f t="shared" si="1"/>
         <v>623</v>
       </c>
       <c r="U45">
-        <f xml:space="preserve"> MIN(U2:U41)</f>
+        <f t="shared" si="1"/>
         <v>641</v>
       </c>
       <c r="V45">
-        <f xml:space="preserve"> MIN(V2:V41)</f>
+        <f t="shared" si="1"/>
         <v>583</v>
       </c>
       <c r="W45">
-        <f xml:space="preserve"> MIN(W2:W41)</f>
+        <f t="shared" si="1"/>
         <v>620</v>
       </c>
       <c r="X45">
-        <f xml:space="preserve"> MIN(X2:X41)</f>
+        <f t="shared" si="1"/>
         <v>613</v>
       </c>
       <c r="Y45">
-        <f xml:space="preserve"> MIN(Y2:Y41)</f>
+        <f t="shared" si="1"/>
         <v>597</v>
       </c>
       <c r="Z45">
-        <f xml:space="preserve"> MIN(Z2:Z41)</f>
+        <f t="shared" si="1"/>
         <v>576</v>
       </c>
       <c r="AA45">
-        <f xml:space="preserve"> MIN(AA2:AA41)</f>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="AB45">
-        <f xml:space="preserve"> MIN(AB2:AB41)</f>
+        <f t="shared" si="1"/>
         <v>631</v>
       </c>
       <c r="AC45">
-        <f xml:space="preserve"> MIN(AC2:AC41)</f>
+        <f t="shared" si="1"/>
         <v>646</v>
       </c>
       <c r="AD45">
-        <f xml:space="preserve"> MIN(AD2:AD41)</f>
+        <f t="shared" si="1"/>
         <v>607</v>
       </c>
       <c r="AE45">
-        <f xml:space="preserve"> MIN(AE2:AE41)</f>
+        <f t="shared" si="1"/>
         <v>606</v>
       </c>
       <c r="AF45">
-        <f xml:space="preserve"> MIN(AF2:AF41)</f>
+        <f t="shared" si="1"/>
         <v>631</v>
       </c>
       <c r="AG45">
-        <f xml:space="preserve"> MIN(AG2:AG41)</f>
+        <f t="shared" si="1"/>
         <v>640</v>
       </c>
       <c r="AH45">
-        <f xml:space="preserve"> MIN(AH2:AH41)</f>
+        <f t="shared" si="1"/>
         <v>604</v>
       </c>
       <c r="AI45">
-        <f xml:space="preserve"> MIN(AI2:AI41)</f>
+        <f t="shared" si="1"/>
         <v>638</v>
       </c>
       <c r="AJ45">
-        <f xml:space="preserve"> MIN(AJ2:AJ41)</f>
+        <f t="shared" si="1"/>
         <v>624</v>
       </c>
       <c r="AK45">
-        <f xml:space="preserve"> MIN(AK2:AK41)</f>
+        <f t="shared" si="1"/>
         <v>589</v>
       </c>
       <c r="AL45">
-        <f xml:space="preserve"> MIN(AL2:AL41)</f>
+        <f t="shared" si="1"/>
         <v>582</v>
       </c>
       <c r="AM45">
-        <f xml:space="preserve"> MIN(AM2:AM41)</f>
+        <f t="shared" si="1"/>
         <v>607</v>
       </c>
       <c r="AN45">
-        <f xml:space="preserve"> MIN(AN2:AN41)</f>
+        <f t="shared" si="1"/>
         <v>614</v>
       </c>
       <c r="AO45">
-        <f xml:space="preserve"> MIN(AO2:AO41)</f>
+        <f t="shared" si="1"/>
         <v>622</v>
       </c>
       <c r="AP45">
-        <f xml:space="preserve"> MIN(AP2:AP41)</f>
+        <f t="shared" si="1"/>
         <v>601</v>
       </c>
       <c r="AQ45">
-        <f xml:space="preserve"> MIN(AQ2:AQ41)</f>
+        <f t="shared" si="1"/>
         <v>649</v>
       </c>
       <c r="AR45">
-        <f xml:space="preserve"> MIN(AR2:AR41)</f>
+        <f t="shared" si="1"/>
         <v>604</v>
       </c>
       <c r="AS45">
-        <f xml:space="preserve"> MIN(AS2:AS41)</f>
+        <f t="shared" si="1"/>
         <v>617</v>
       </c>
       <c r="AT45">
-        <f xml:space="preserve"> MIN(AT2:AT41)</f>
+        <f t="shared" si="1"/>
         <v>606</v>
       </c>
       <c r="AU45">
-        <f xml:space="preserve"> MIN(AU2:AU41)</f>
+        <f t="shared" si="1"/>
         <v>635</v>
       </c>
       <c r="AV45">
-        <f xml:space="preserve"> MIN(AV2:AV41)</f>
+        <f t="shared" si="1"/>
         <v>597</v>
       </c>
       <c r="AW45">
-        <f xml:space="preserve"> MIN(AW2:AW41)</f>
+        <f t="shared" si="1"/>
         <v>632</v>
       </c>
     </row>
@@ -41282,195 +41510,195 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <f xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
+        <f t="shared" ref="B46:AW46" si="2" xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
         <v>20</v>
       </c>
       <c r="C46">
-        <f xml:space="preserve"> MATCH(C44,C2:C41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D46">
-        <f xml:space="preserve"> MATCH(D44,D2:D41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E46">
-        <f xml:space="preserve"> MATCH(E44,E2:E41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F46">
-        <f xml:space="preserve"> MATCH(F44,F2:F41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G46">
-        <f xml:space="preserve"> MATCH(G44,G2:G41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H46">
-        <f xml:space="preserve"> MATCH(H44,H2:H41,0)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I46">
-        <f xml:space="preserve"> MATCH(I44,I2:I41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J46">
-        <f xml:space="preserve"> MATCH(J44,J2:J41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K46">
-        <f xml:space="preserve"> MATCH(K44,K2:K41,0)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="L46">
-        <f xml:space="preserve"> MATCH(L44,L2:L41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M46">
-        <f xml:space="preserve"> MATCH(M44,M2:M41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N46">
-        <f xml:space="preserve"> MATCH(N44,N2:N41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O46">
-        <f xml:space="preserve"> MATCH(O44,O2:O41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P46">
-        <f xml:space="preserve"> MATCH(P44,P2:P41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q46">
-        <f xml:space="preserve"> MATCH(Q44,Q2:Q41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R46">
-        <f xml:space="preserve"> MATCH(R44,R2:R41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="S46">
-        <f xml:space="preserve"> MATCH(S44,S2:S41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="T46">
-        <f xml:space="preserve"> MATCH(T44,T2:T41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="U46">
-        <f xml:space="preserve"> MATCH(U44,U2:U41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="V46">
-        <f xml:space="preserve"> MATCH(V44,V2:V41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W46">
-        <f xml:space="preserve"> MATCH(W44,W2:W41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="X46">
-        <f xml:space="preserve"> MATCH(X44,X2:X41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Y46">
-        <f xml:space="preserve"> MATCH(Y44,Y2:Y41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Z46">
-        <f xml:space="preserve"> MATCH(Z44,Z2:Z41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AA46">
-        <f xml:space="preserve"> MATCH(AA44,AA2:AA41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB46">
-        <f xml:space="preserve"> MATCH(AB44,AB2:AB41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AC46">
-        <f xml:space="preserve"> MATCH(AC44,AC2:AC41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AD46">
-        <f xml:space="preserve"> MATCH(AD44,AD2:AD41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE46">
-        <f xml:space="preserve"> MATCH(AE44,AE2:AE41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AF46">
-        <f xml:space="preserve"> MATCH(AF44,AF2:AF41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AG46">
-        <f xml:space="preserve"> MATCH(AG44,AG2:AG41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AH46">
-        <f xml:space="preserve"> MATCH(AH44,AH2:AH41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AI46">
-        <f xml:space="preserve"> MATCH(AI44,AI2:AI41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AJ46">
-        <f xml:space="preserve"> MATCH(AJ44,AJ2:AJ41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AK46">
-        <f xml:space="preserve"> MATCH(AK44,AK2:AK41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AL46">
-        <f xml:space="preserve"> MATCH(AL44,AL2:AL41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AM46">
-        <f xml:space="preserve"> MATCH(AM44,AM2:AM41,0)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="AN46">
-        <f xml:space="preserve"> MATCH(AN44,AN2:AN41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AO46">
-        <f xml:space="preserve"> MATCH(AO44,AO2:AO41,0)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AP46">
-        <f xml:space="preserve"> MATCH(AP44,AP2:AP41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AQ46">
-        <f xml:space="preserve"> MATCH(AQ44,AQ2:AQ41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AR46">
-        <f xml:space="preserve"> MATCH(AR44,AR2:AR41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AS46">
-        <f xml:space="preserve"> MATCH(AS44,AS2:AS41,0)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="AT46">
-        <f xml:space="preserve"> MATCH(AT44,AT2:AT41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AU46">
-        <f xml:space="preserve"> MATCH(AU44,AU2:AU41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AV46">
-        <f xml:space="preserve"> MATCH(AV44,AV2:AV41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AW46">
-        <f xml:space="preserve"> MATCH(AW44,AW2:AW41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -47478,195 +47706,195 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <f xml:space="preserve"> MAX(B2:B41)</f>
+        <f t="shared" ref="B44:AW44" si="0" xml:space="preserve"> MAX(B2:B41)</f>
         <v>653</v>
       </c>
       <c r="C44">
-        <f xml:space="preserve"> MAX(C2:C41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="D44">
-        <f xml:space="preserve"> MAX(D2:D41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="E44">
-        <f xml:space="preserve"> MAX(E2:E41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="F44">
-        <f xml:space="preserve"> MAX(F2:F41)</f>
+        <f t="shared" si="0"/>
         <v>646</v>
       </c>
       <c r="G44">
-        <f xml:space="preserve"> MAX(G2:G41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="H44">
-        <f xml:space="preserve"> MAX(H2:H41)</f>
+        <f t="shared" si="0"/>
         <v>639</v>
       </c>
       <c r="I44">
-        <f xml:space="preserve"> MAX(I2:I41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="J44">
-        <f xml:space="preserve"> MAX(J2:J41)</f>
+        <f t="shared" si="0"/>
         <v>646</v>
       </c>
       <c r="K44">
-        <f xml:space="preserve"> MAX(K2:K41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="L44">
-        <f xml:space="preserve"> MAX(L2:L41)</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
       <c r="M44">
-        <f xml:space="preserve"> MAX(M2:M41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="N44">
-        <f xml:space="preserve"> MAX(N2:N41)</f>
+        <f t="shared" si="0"/>
         <v>647</v>
       </c>
       <c r="O44">
-        <f xml:space="preserve"> MAX(O2:O41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="P44">
-        <f xml:space="preserve"> MAX(P2:P41)</f>
+        <f t="shared" si="0"/>
         <v>635</v>
       </c>
       <c r="Q44">
-        <f xml:space="preserve"> MAX(Q2:Q41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="R44">
-        <f xml:space="preserve"> MAX(R2:R41)</f>
+        <f t="shared" si="0"/>
         <v>644</v>
       </c>
       <c r="S44">
-        <f xml:space="preserve"> MAX(S2:S41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="T44">
-        <f xml:space="preserve"> MAX(T2:T41)</f>
+        <f t="shared" si="0"/>
         <v>648</v>
       </c>
       <c r="U44">
-        <f xml:space="preserve"> MAX(U2:U41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="V44">
-        <f xml:space="preserve"> MAX(V2:V41)</f>
+        <f t="shared" si="0"/>
         <v>636</v>
       </c>
       <c r="W44">
-        <f xml:space="preserve"> MAX(W2:W41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="X44">
-        <f xml:space="preserve"> MAX(X2:X41)</f>
+        <f t="shared" si="0"/>
         <v>638</v>
       </c>
       <c r="Y44">
-        <f xml:space="preserve"> MAX(Y2:Y41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="Z44">
-        <f xml:space="preserve"> MAX(Z2:Z41)</f>
+        <f t="shared" si="0"/>
         <v>643</v>
       </c>
       <c r="AA44">
-        <f xml:space="preserve"> MAX(AA2:AA41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AB44">
-        <f xml:space="preserve"> MAX(AB2:AB41)</f>
+        <f t="shared" si="0"/>
         <v>637</v>
       </c>
       <c r="AC44">
-        <f xml:space="preserve"> MAX(AC2:AC41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AD44">
-        <f xml:space="preserve"> MAX(AD2:AD41)</f>
+        <f t="shared" si="0"/>
         <v>650</v>
       </c>
       <c r="AE44">
-        <f xml:space="preserve"> MAX(AE2:AE41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AF44">
-        <f xml:space="preserve"> MAX(AF2:AF41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AG44">
-        <f xml:space="preserve"> MAX(AG2:AG41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AH44">
-        <f xml:space="preserve"> MAX(AH2:AH41)</f>
+        <f t="shared" si="0"/>
         <v>644</v>
       </c>
       <c r="AI44">
-        <f xml:space="preserve"> MAX(AI2:AI41)</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
       <c r="AJ44">
-        <f xml:space="preserve"> MAX(AJ2:AJ41)</f>
+        <f t="shared" si="0"/>
         <v>645</v>
       </c>
       <c r="AK44">
-        <f xml:space="preserve"> MAX(AK2:AK41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AL44">
-        <f xml:space="preserve"> MAX(AL2:AL41)</f>
+        <f t="shared" si="0"/>
         <v>643</v>
       </c>
       <c r="AM44">
-        <f xml:space="preserve"> MAX(AM2:AM41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AN44">
-        <f xml:space="preserve"> MAX(AN2:AN41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AO44">
-        <f xml:space="preserve"> MAX(AO2:AO41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AP44">
-        <f xml:space="preserve"> MAX(AP2:AP41)</f>
+        <f t="shared" si="0"/>
         <v>638</v>
       </c>
       <c r="AQ44">
-        <f xml:space="preserve"> MAX(AQ2:AQ41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AR44">
-        <f xml:space="preserve"> MAX(AR2:AR41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="AS44">
-        <f xml:space="preserve"> MAX(AS2:AS41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AT44">
-        <f xml:space="preserve"> MAX(AT2:AT41)</f>
+        <f t="shared" si="0"/>
         <v>631</v>
       </c>
       <c r="AU44">
-        <f xml:space="preserve"> MAX(AU2:AU41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AV44">
-        <f xml:space="preserve"> MAX(AV2:AV41)</f>
+        <f t="shared" si="0"/>
         <v>646</v>
       </c>
       <c r="AW44">
-        <f xml:space="preserve"> MAX(AW2:AW41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
     </row>
@@ -47675,195 +47903,195 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <f xml:space="preserve"> MIN(B2:B41)</f>
+        <f t="shared" ref="B45:AW45" si="1" xml:space="preserve"> MIN(B2:B41)</f>
         <v>546</v>
       </c>
       <c r="C45">
-        <f xml:space="preserve"> MIN(C2:C41)</f>
+        <f t="shared" si="1"/>
         <v>598</v>
       </c>
       <c r="D45">
-        <f xml:space="preserve"> MIN(D2:D41)</f>
+        <f t="shared" si="1"/>
         <v>599</v>
       </c>
       <c r="E45">
-        <f xml:space="preserve"> MIN(E2:E41)</f>
+        <f t="shared" si="1"/>
         <v>635</v>
       </c>
       <c r="F45">
-        <f xml:space="preserve"> MIN(F2:F41)</f>
+        <f t="shared" si="1"/>
         <v>568</v>
       </c>
       <c r="G45">
-        <f xml:space="preserve"> MIN(G2:G41)</f>
+        <f t="shared" si="1"/>
         <v>612</v>
       </c>
       <c r="H45">
-        <f xml:space="preserve"> MIN(H2:H41)</f>
+        <f t="shared" si="1"/>
         <v>597</v>
       </c>
       <c r="I45">
-        <f xml:space="preserve"> MIN(I2:I41)</f>
+        <f t="shared" si="1"/>
         <v>632</v>
       </c>
       <c r="J45">
-        <f xml:space="preserve"> MIN(J2:J41)</f>
+        <f t="shared" si="1"/>
         <v>597</v>
       </c>
       <c r="K45">
-        <f xml:space="preserve"> MIN(K2:K41)</f>
+        <f t="shared" si="1"/>
         <v>611</v>
       </c>
       <c r="L45">
-        <f xml:space="preserve"> MIN(L2:L41)</f>
+        <f t="shared" si="1"/>
         <v>578</v>
       </c>
       <c r="M45">
-        <f xml:space="preserve"> MIN(M2:M41)</f>
+        <f t="shared" si="1"/>
         <v>621</v>
       </c>
       <c r="N45">
-        <f xml:space="preserve"> MIN(N2:N41)</f>
+        <f t="shared" si="1"/>
         <v>606</v>
       </c>
       <c r="O45">
-        <f xml:space="preserve"> MIN(O2:O41)</f>
+        <f t="shared" si="1"/>
         <v>579</v>
       </c>
       <c r="P45">
-        <f xml:space="preserve"> MIN(P2:P41)</f>
+        <f t="shared" si="1"/>
         <v>585</v>
       </c>
       <c r="Q45">
-        <f xml:space="preserve"> MIN(Q2:Q41)</f>
+        <f t="shared" si="1"/>
         <v>652</v>
       </c>
       <c r="R45">
-        <f xml:space="preserve"> MIN(R2:R41)</f>
+        <f t="shared" si="1"/>
         <v>610</v>
       </c>
       <c r="S45">
-        <f xml:space="preserve"> MIN(S2:S41)</f>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="T45">
-        <f xml:space="preserve"> MIN(T2:T41)</f>
+        <f t="shared" si="1"/>
         <v>610</v>
       </c>
       <c r="U45">
-        <f xml:space="preserve"> MIN(U2:U41)</f>
+        <f t="shared" si="1"/>
         <v>622</v>
       </c>
       <c r="V45">
-        <f xml:space="preserve"> MIN(V2:V41)</f>
+        <f t="shared" si="1"/>
         <v>595</v>
       </c>
       <c r="W45">
-        <f xml:space="preserve"> MIN(W2:W41)</f>
+        <f t="shared" si="1"/>
         <v>643</v>
       </c>
       <c r="X45">
-        <f xml:space="preserve"> MIN(X2:X41)</f>
+        <f t="shared" si="1"/>
         <v>612</v>
       </c>
       <c r="Y45">
-        <f xml:space="preserve"> MIN(Y2:Y41)</f>
+        <f t="shared" si="1"/>
         <v>635</v>
       </c>
       <c r="Z45">
-        <f xml:space="preserve"> MIN(Z2:Z41)</f>
+        <f t="shared" si="1"/>
         <v>618</v>
       </c>
       <c r="AA45">
-        <f xml:space="preserve"> MIN(AA2:AA41)</f>
+        <f t="shared" si="1"/>
         <v>621</v>
       </c>
       <c r="AB45">
-        <f xml:space="preserve"> MIN(AB2:AB41)</f>
+        <f t="shared" si="1"/>
         <v>619</v>
       </c>
       <c r="AC45">
-        <f xml:space="preserve"> MIN(AC2:AC41)</f>
+        <f t="shared" si="1"/>
         <v>646</v>
       </c>
       <c r="AD45">
-        <f xml:space="preserve"> MIN(AD2:AD41)</f>
+        <f t="shared" si="1"/>
         <v>592</v>
       </c>
       <c r="AE45">
-        <f xml:space="preserve"> MIN(AE2:AE41)</f>
+        <f t="shared" si="1"/>
         <v>639</v>
       </c>
       <c r="AF45">
-        <f xml:space="preserve"> MIN(AF2:AF41)</f>
+        <f t="shared" si="1"/>
         <v>636</v>
       </c>
       <c r="AG45">
-        <f xml:space="preserve"> MIN(AG2:AG41)</f>
+        <f t="shared" si="1"/>
         <v>621</v>
       </c>
       <c r="AH45">
-        <f xml:space="preserve"> MIN(AH2:AH41)</f>
+        <f t="shared" si="1"/>
         <v>596</v>
       </c>
       <c r="AI45">
-        <f xml:space="preserve"> MIN(AI2:AI41)</f>
+        <f t="shared" si="1"/>
         <v>632</v>
       </c>
       <c r="AJ45">
-        <f xml:space="preserve"> MIN(AJ2:AJ41)</f>
+        <f t="shared" si="1"/>
         <v>607</v>
       </c>
       <c r="AK45">
-        <f xml:space="preserve"> MIN(AK2:AK41)</f>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="AL45">
-        <f xml:space="preserve"> MIN(AL2:AL41)</f>
+        <f t="shared" si="1"/>
         <v>643</v>
       </c>
       <c r="AM45">
-        <f xml:space="preserve"> MIN(AM2:AM41)</f>
+        <f t="shared" si="1"/>
         <v>610</v>
       </c>
       <c r="AN45">
-        <f xml:space="preserve"> MIN(AN2:AN41)</f>
+        <f t="shared" si="1"/>
         <v>572</v>
       </c>
       <c r="AO45">
-        <f xml:space="preserve"> MIN(AO2:AO41)</f>
+        <f t="shared" si="1"/>
         <v>626</v>
       </c>
       <c r="AP45">
-        <f xml:space="preserve"> MIN(AP2:AP41)</f>
+        <f t="shared" si="1"/>
         <v>638</v>
       </c>
       <c r="AQ45">
-        <f xml:space="preserve"> MIN(AQ2:AQ41)</f>
+        <f t="shared" si="1"/>
         <v>615</v>
       </c>
       <c r="AR45">
-        <f xml:space="preserve"> MIN(AR2:AR41)</f>
+        <f t="shared" si="1"/>
         <v>482</v>
       </c>
       <c r="AS45">
-        <f xml:space="preserve"> MIN(AS2:AS41)</f>
+        <f t="shared" si="1"/>
         <v>648</v>
       </c>
       <c r="AT45">
-        <f xml:space="preserve"> MIN(AT2:AT41)</f>
+        <f t="shared" si="1"/>
         <v>620</v>
       </c>
       <c r="AU45">
-        <f xml:space="preserve"> MIN(AU2:AU41)</f>
+        <f t="shared" si="1"/>
         <v>602</v>
       </c>
       <c r="AV45">
-        <f xml:space="preserve"> MIN(AV2:AV41)</f>
+        <f t="shared" si="1"/>
         <v>574</v>
       </c>
       <c r="AW45">
-        <f xml:space="preserve"> MIN(AW2:AW41)</f>
+        <f t="shared" si="1"/>
         <v>619</v>
       </c>
     </row>
@@ -47872,195 +48100,195 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <f xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
+        <f t="shared" ref="B46:AW46" si="2" xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
         <v>21</v>
       </c>
       <c r="C46">
-        <f xml:space="preserve"> MATCH(C44,C2:C41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D46">
-        <f xml:space="preserve"> MATCH(D44,D2:D41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E46">
-        <f xml:space="preserve"> MATCH(E44,E2:E41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F46">
-        <f xml:space="preserve"> MATCH(F44,F2:F41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G46">
-        <f xml:space="preserve"> MATCH(G44,G2:G41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H46">
-        <f xml:space="preserve"> MATCH(H44,H2:H41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I46">
-        <f xml:space="preserve"> MATCH(I44,I2:I41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J46">
-        <f xml:space="preserve"> MATCH(J44,J2:J41,0)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="K46">
-        <f xml:space="preserve"> MATCH(K44,K2:K41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L46">
-        <f xml:space="preserve"> MATCH(L44,L2:L41,0)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="M46">
-        <f xml:space="preserve"> MATCH(M44,M2:M41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="N46">
-        <f xml:space="preserve"> MATCH(N44,N2:N41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O46">
-        <f xml:space="preserve"> MATCH(O44,O2:O41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="P46">
-        <f xml:space="preserve"> MATCH(P44,P2:P41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q46">
-        <f xml:space="preserve"> MATCH(Q44,Q2:Q41,0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="R46">
-        <f xml:space="preserve"> MATCH(R44,R2:R41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="S46">
-        <f xml:space="preserve"> MATCH(S44,S2:S41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="T46">
-        <f xml:space="preserve"> MATCH(T44,T2:T41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="U46">
-        <f xml:space="preserve"> MATCH(U44,U2:U41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="V46">
-        <f xml:space="preserve"> MATCH(V44,V2:V41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="W46">
-        <f xml:space="preserve"> MATCH(W44,W2:W41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X46">
-        <f xml:space="preserve"> MATCH(X44,X2:X41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y46">
-        <f xml:space="preserve"> MATCH(Y44,Y2:Y41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Z46">
-        <f xml:space="preserve"> MATCH(Z44,Z2:Z41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA46">
-        <f xml:space="preserve"> MATCH(AA44,AA2:AA41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB46">
-        <f xml:space="preserve"> MATCH(AB44,AB2:AB41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AC46">
-        <f xml:space="preserve"> MATCH(AC44,AC2:AC41,0)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AD46">
-        <f xml:space="preserve"> MATCH(AD44,AD2:AD41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AE46">
-        <f xml:space="preserve"> MATCH(AE44,AE2:AE41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AF46">
-        <f xml:space="preserve"> MATCH(AF44,AF2:AF41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AG46">
-        <f xml:space="preserve"> MATCH(AG44,AG2:AG41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AH46">
-        <f xml:space="preserve"> MATCH(AH44,AH2:AH41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AI46">
-        <f xml:space="preserve"> MATCH(AI44,AI2:AI41,0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AJ46">
-        <f xml:space="preserve"> MATCH(AJ44,AJ2:AJ41,0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AK46">
-        <f xml:space="preserve"> MATCH(AK44,AK2:AK41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AL46">
-        <f xml:space="preserve"> MATCH(AL44,AL2:AL41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AM46">
-        <f xml:space="preserve"> MATCH(AM44,AM2:AM41,0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AN46">
-        <f xml:space="preserve"> MATCH(AN44,AN2:AN41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AO46">
-        <f xml:space="preserve"> MATCH(AO44,AO2:AO41,0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AP46">
-        <f xml:space="preserve"> MATCH(AP44,AP2:AP41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AQ46">
-        <f xml:space="preserve"> MATCH(AQ44,AQ2:AQ41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AR46">
-        <f xml:space="preserve"> MATCH(AR44,AR2:AR41,0)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="AS46">
-        <f xml:space="preserve"> MATCH(AS44,AS2:AS41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AT46">
-        <f xml:space="preserve"> MATCH(AT44,AT2:AT41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AU46">
-        <f xml:space="preserve"> MATCH(AU44,AU2:AU41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AV46">
-        <f xml:space="preserve"> MATCH(AV44,AV2:AV41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AW46">
-        <f xml:space="preserve"> MATCH(AW44,AW2:AW41,0)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -54068,195 +54296,195 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <f xml:space="preserve"> MAX(B2:B41)</f>
+        <f t="shared" ref="B44:AW44" si="0" xml:space="preserve"> MAX(B2:B41)</f>
         <v>632</v>
       </c>
       <c r="C44">
-        <f xml:space="preserve"> MAX(C2:C41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="D44">
-        <f xml:space="preserve"> MAX(D2:D41)</f>
+        <f t="shared" si="0"/>
         <v>620</v>
       </c>
       <c r="E44">
-        <f xml:space="preserve"> MAX(E2:E41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="F44">
-        <f xml:space="preserve"> MAX(F2:F41)</f>
+        <f t="shared" si="0"/>
         <v>631</v>
       </c>
       <c r="G44">
-        <f xml:space="preserve"> MAX(G2:G41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="H44">
-        <f xml:space="preserve"> MAX(H2:H41)</f>
+        <f t="shared" si="0"/>
         <v>632</v>
       </c>
       <c r="I44">
-        <f xml:space="preserve"> MAX(I2:I41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="J44">
-        <f xml:space="preserve"> MAX(J2:J41)</f>
+        <f t="shared" si="0"/>
         <v>643</v>
       </c>
       <c r="K44">
-        <f xml:space="preserve"> MAX(K2:K41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="L44">
-        <f xml:space="preserve"> MAX(L2:L41)</f>
+        <f t="shared" si="0"/>
         <v>649</v>
       </c>
       <c r="M44">
-        <f xml:space="preserve"> MAX(M2:M41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="N44">
-        <f xml:space="preserve"> MAX(N2:N41)</f>
+        <f t="shared" si="0"/>
         <v>636</v>
       </c>
       <c r="O44">
-        <f xml:space="preserve"> MAX(O2:O41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="P44">
-        <f xml:space="preserve"> MAX(P2:P41)</f>
+        <f t="shared" si="0"/>
         <v>634</v>
       </c>
       <c r="Q44">
-        <f xml:space="preserve"> MAX(Q2:Q41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="R44">
-        <f xml:space="preserve"> MAX(R2:R41)</f>
+        <f t="shared" si="0"/>
         <v>607</v>
       </c>
       <c r="S44">
-        <f xml:space="preserve"> MAX(S2:S41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="T44">
-        <f xml:space="preserve"> MAX(T2:T41)</f>
+        <f t="shared" si="0"/>
         <v>650</v>
       </c>
       <c r="U44">
-        <f xml:space="preserve"> MAX(U2:U41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="V44">
-        <f xml:space="preserve"> MAX(V2:V41)</f>
+        <f t="shared" si="0"/>
         <v>641</v>
       </c>
       <c r="W44">
-        <f xml:space="preserve"> MAX(W2:W41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="X44">
-        <f xml:space="preserve"> MAX(X2:X41)</f>
+        <f t="shared" si="0"/>
         <v>647</v>
       </c>
       <c r="Y44">
-        <f xml:space="preserve"> MAX(Y2:Y41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="Z44">
-        <f xml:space="preserve"> MAX(Z2:Z41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AA44">
-        <f xml:space="preserve"> MAX(AA2:AA41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AB44">
-        <f xml:space="preserve"> MAX(AB2:AB41)</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="AC44">
-        <f xml:space="preserve"> MAX(AC2:AC41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AD44">
-        <f xml:space="preserve"> MAX(AD2:AD41)</f>
+        <f t="shared" si="0"/>
         <v>648</v>
       </c>
       <c r="AE44">
-        <f xml:space="preserve"> MAX(AE2:AE41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AF44">
-        <f xml:space="preserve"> MAX(AF2:AF41)</f>
+        <f t="shared" si="0"/>
         <v>631</v>
       </c>
       <c r="AG44">
-        <f xml:space="preserve"> MAX(AG2:AG41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AH44">
-        <f xml:space="preserve"> MAX(AH2:AH41)</f>
+        <f t="shared" si="0"/>
         <v>610</v>
       </c>
       <c r="AI44">
-        <f xml:space="preserve"> MAX(AI2:AI41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AJ44">
-        <f xml:space="preserve"> MAX(AJ2:AJ41)</f>
+        <f t="shared" si="0"/>
         <v>628</v>
       </c>
       <c r="AK44">
-        <f xml:space="preserve"> MAX(AK2:AK41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AL44">
-        <f xml:space="preserve"> MAX(AL2:AL41)</f>
+        <f t="shared" si="0"/>
         <v>647</v>
       </c>
       <c r="AM44">
-        <f xml:space="preserve"> MAX(AM2:AM41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AN44">
-        <f xml:space="preserve"> MAX(AN2:AN41)</f>
+        <f t="shared" si="0"/>
         <v>639</v>
       </c>
       <c r="AO44">
-        <f xml:space="preserve"> MAX(AO2:AO41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AP44">
-        <f xml:space="preserve"> MAX(AP2:AP41)</f>
+        <f t="shared" si="0"/>
         <v>648</v>
       </c>
       <c r="AQ44">
-        <f xml:space="preserve"> MAX(AQ2:AQ41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AR44">
-        <f xml:space="preserve"> MAX(AR2:AR41)</f>
+        <f t="shared" si="0"/>
         <v>637</v>
       </c>
       <c r="AS44">
-        <f xml:space="preserve"> MAX(AS2:AS41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AT44">
-        <f xml:space="preserve"> MAX(AT2:AT41)</f>
+        <f t="shared" si="0"/>
         <v>641</v>
       </c>
       <c r="AU44">
-        <f xml:space="preserve"> MAX(AU2:AU41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AV44">
-        <f xml:space="preserve"> MAX(AV2:AV41)</f>
+        <f t="shared" si="0"/>
         <v>632</v>
       </c>
       <c r="AW44">
-        <f xml:space="preserve"> MAX(AW2:AW41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
     </row>
@@ -54265,195 +54493,195 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <f xml:space="preserve"> MIN(B2:B41)</f>
+        <f t="shared" ref="B45:AW45" si="1" xml:space="preserve"> MIN(B2:B41)</f>
         <v>582</v>
       </c>
       <c r="C45">
-        <f xml:space="preserve"> MIN(C2:C41)</f>
+        <f t="shared" si="1"/>
         <v>593</v>
       </c>
       <c r="D45">
-        <f xml:space="preserve"> MIN(D2:D41)</f>
+        <f t="shared" si="1"/>
         <v>598</v>
       </c>
       <c r="E45">
-        <f xml:space="preserve"> MIN(E2:E41)</f>
+        <f t="shared" si="1"/>
         <v>588</v>
       </c>
       <c r="F45">
-        <f xml:space="preserve"> MIN(F2:F41)</f>
+        <f t="shared" si="1"/>
         <v>628</v>
       </c>
       <c r="G45">
-        <f xml:space="preserve"> MIN(G2:G41)</f>
+        <f t="shared" si="1"/>
         <v>623</v>
       </c>
       <c r="H45">
-        <f xml:space="preserve"> MIN(H2:H41)</f>
+        <f t="shared" si="1"/>
         <v>553</v>
       </c>
       <c r="I45">
-        <f xml:space="preserve"> MIN(I2:I41)</f>
+        <f t="shared" si="1"/>
         <v>638</v>
       </c>
       <c r="J45">
-        <f xml:space="preserve"> MIN(J2:J41)</f>
+        <f t="shared" si="1"/>
         <v>593</v>
       </c>
       <c r="K45">
-        <f xml:space="preserve"> MIN(K2:K41)</f>
+        <f t="shared" si="1"/>
         <v>617</v>
       </c>
       <c r="L45">
-        <f xml:space="preserve"> MIN(L2:L41)</f>
+        <f t="shared" si="1"/>
         <v>558</v>
       </c>
       <c r="M45">
-        <f xml:space="preserve"> MIN(M2:M41)</f>
+        <f t="shared" si="1"/>
         <v>627</v>
       </c>
       <c r="N45">
-        <f xml:space="preserve"> MIN(N2:N41)</f>
+        <f t="shared" si="1"/>
         <v>609</v>
       </c>
       <c r="O45">
-        <f xml:space="preserve"> MIN(O2:O41)</f>
+        <f t="shared" si="1"/>
         <v>634</v>
       </c>
       <c r="P45">
-        <f xml:space="preserve"> MIN(P2:P41)</f>
+        <f t="shared" si="1"/>
         <v>516</v>
       </c>
       <c r="Q45">
-        <f xml:space="preserve"> MIN(Q2:Q41)</f>
+        <f t="shared" si="1"/>
         <v>593</v>
       </c>
       <c r="R45">
-        <f xml:space="preserve"> MIN(R2:R41)</f>
+        <f t="shared" si="1"/>
         <v>570</v>
       </c>
       <c r="S45">
-        <f xml:space="preserve"> MIN(S2:S41)</f>
+        <f t="shared" si="1"/>
         <v>646</v>
       </c>
       <c r="T45">
-        <f xml:space="preserve"> MIN(T2:T41)</f>
+        <f t="shared" si="1"/>
         <v>608</v>
       </c>
       <c r="U45">
-        <f xml:space="preserve"> MIN(U2:U41)</f>
+        <f t="shared" si="1"/>
         <v>632</v>
       </c>
       <c r="V45">
-        <f xml:space="preserve"> MIN(V2:V41)</f>
+        <f t="shared" si="1"/>
         <v>641</v>
       </c>
       <c r="W45">
-        <f xml:space="preserve"> MIN(W2:W41)</f>
+        <f t="shared" si="1"/>
         <v>626</v>
       </c>
       <c r="X45">
-        <f xml:space="preserve"> MIN(X2:X41)</f>
+        <f t="shared" si="1"/>
         <v>616</v>
       </c>
       <c r="Y45">
-        <f xml:space="preserve"> MIN(Y2:Y41)</f>
+        <f t="shared" si="1"/>
         <v>643</v>
       </c>
       <c r="Z45">
-        <f xml:space="preserve"> MIN(Z2:Z41)</f>
+        <f t="shared" si="1"/>
         <v>458</v>
       </c>
       <c r="AA45">
-        <f xml:space="preserve"> MIN(AA2:AA41)</f>
+        <f t="shared" si="1"/>
         <v>607</v>
       </c>
       <c r="AB45">
-        <f xml:space="preserve"> MIN(AB2:AB41)</f>
+        <f t="shared" si="1"/>
         <v>579</v>
       </c>
       <c r="AC45">
-        <f xml:space="preserve"> MIN(AC2:AC41)</f>
+        <f t="shared" si="1"/>
         <v>594</v>
       </c>
       <c r="AD45">
-        <f xml:space="preserve"> MIN(AD2:AD41)</f>
+        <f t="shared" si="1"/>
         <v>586</v>
       </c>
       <c r="AE45">
-        <f xml:space="preserve"> MIN(AE2:AE41)</f>
+        <f t="shared" si="1"/>
         <v>623</v>
       </c>
       <c r="AF45">
-        <f xml:space="preserve"> MIN(AF2:AF41)</f>
+        <f t="shared" si="1"/>
         <v>532</v>
       </c>
       <c r="AG45">
-        <f xml:space="preserve"> MIN(AG2:AG41)</f>
+        <f t="shared" si="1"/>
         <v>651</v>
       </c>
       <c r="AH45">
-        <f xml:space="preserve"> MIN(AH2:AH41)</f>
+        <f t="shared" si="1"/>
         <v>570</v>
       </c>
       <c r="AI45">
-        <f xml:space="preserve"> MIN(AI2:AI41)</f>
+        <f t="shared" si="1"/>
         <v>646</v>
       </c>
       <c r="AJ45">
-        <f xml:space="preserve"> MIN(AJ2:AJ41)</f>
+        <f t="shared" si="1"/>
         <v>470</v>
       </c>
       <c r="AK45">
-        <f xml:space="preserve"> MIN(AK2:AK41)</f>
+        <f t="shared" si="1"/>
         <v>638</v>
       </c>
       <c r="AL45">
-        <f xml:space="preserve"> MIN(AL2:AL41)</f>
+        <f t="shared" si="1"/>
         <v>642</v>
       </c>
       <c r="AM45">
-        <f xml:space="preserve"> MIN(AM2:AM41)</f>
+        <f t="shared" si="1"/>
         <v>622</v>
       </c>
       <c r="AN45">
-        <f xml:space="preserve"> MIN(AN2:AN41)</f>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="AO45">
-        <f xml:space="preserve"> MIN(AO2:AO41)</f>
+        <f t="shared" si="1"/>
         <v>647</v>
       </c>
       <c r="AP45">
-        <f xml:space="preserve"> MIN(AP2:AP41)</f>
+        <f t="shared" si="1"/>
         <v>517</v>
       </c>
       <c r="AQ45">
-        <f xml:space="preserve"> MIN(AQ2:AQ41)</f>
+        <f t="shared" si="1"/>
         <v>629</v>
       </c>
       <c r="AR45">
-        <f xml:space="preserve"> MIN(AR2:AR41)</f>
+        <f t="shared" si="1"/>
         <v>590</v>
       </c>
       <c r="AS45">
-        <f xml:space="preserve"> MIN(AS2:AS41)</f>
+        <f t="shared" si="1"/>
         <v>626</v>
       </c>
       <c r="AT45">
-        <f xml:space="preserve"> MIN(AT2:AT41)</f>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="AU45">
-        <f xml:space="preserve"> MIN(AU2:AU41)</f>
+        <f t="shared" si="1"/>
         <v>629</v>
       </c>
       <c r="AV45">
-        <f xml:space="preserve"> MIN(AV2:AV41)</f>
+        <f t="shared" si="1"/>
         <v>580</v>
       </c>
       <c r="AW45">
-        <f xml:space="preserve"> MIN(AW2:AW41)</f>
+        <f t="shared" si="1"/>
         <v>640</v>
       </c>
     </row>
@@ -54462,195 +54690,195 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <f xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
+        <f t="shared" ref="B46:AW46" si="2" xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
         <v>2</v>
       </c>
       <c r="C46">
-        <f xml:space="preserve"> MATCH(C44,C2:C41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D46">
-        <f xml:space="preserve"> MATCH(D44,D2:D41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E46">
-        <f xml:space="preserve"> MATCH(E44,E2:E41,0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F46">
-        <f xml:space="preserve"> MATCH(F44,F2:F41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G46">
-        <f xml:space="preserve"> MATCH(G44,G2:G41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H46">
-        <f xml:space="preserve"> MATCH(H44,H2:H41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I46">
-        <f xml:space="preserve"> MATCH(I44,I2:I41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J46">
-        <f xml:space="preserve"> MATCH(J44,J2:J41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K46">
-        <f xml:space="preserve"> MATCH(K44,K2:K41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L46">
-        <f xml:space="preserve"> MATCH(L44,L2:L41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M46">
-        <f xml:space="preserve"> MATCH(M44,M2:M41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="N46">
-        <f xml:space="preserve"> MATCH(N44,N2:N41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O46">
-        <f xml:space="preserve"> MATCH(O44,O2:O41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P46">
-        <f xml:space="preserve"> MATCH(P44,P2:P41,0)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="Q46">
-        <f xml:space="preserve"> MATCH(Q44,Q2:Q41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="R46">
-        <f xml:space="preserve"> MATCH(R44,R2:R41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="S46">
-        <f xml:space="preserve"> MATCH(S44,S2:S41,0)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="T46">
-        <f xml:space="preserve"> MATCH(T44,T2:T41,0)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="U46">
-        <f xml:space="preserve"> MATCH(U44,U2:U41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V46">
-        <f xml:space="preserve"> MATCH(V44,V2:V41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W46">
-        <f xml:space="preserve"> MATCH(W44,W2:W41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="X46">
-        <f xml:space="preserve"> MATCH(X44,X2:X41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Y46">
-        <f xml:space="preserve"> MATCH(Y44,Y2:Y41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Z46">
-        <f xml:space="preserve"> MATCH(Z44,Z2:Z41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA46">
-        <f xml:space="preserve"> MATCH(AA44,AA2:AA41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB46">
-        <f xml:space="preserve"> MATCH(AB44,AB2:AB41,0)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="AC46">
-        <f xml:space="preserve"> MATCH(AC44,AC2:AC41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AD46">
-        <f xml:space="preserve"> MATCH(AD44,AD2:AD41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE46">
-        <f xml:space="preserve"> MATCH(AE44,AE2:AE41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AF46">
-        <f xml:space="preserve"> MATCH(AF44,AF2:AF41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AG46">
-        <f xml:space="preserve"> MATCH(AG44,AG2:AG41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AH46">
-        <f xml:space="preserve"> MATCH(AH44,AH2:AH41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AI46">
-        <f xml:space="preserve"> MATCH(AI44,AI2:AI41,0)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="AJ46">
-        <f xml:space="preserve"> MATCH(AJ44,AJ2:AJ41,0)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="AK46">
-        <f xml:space="preserve"> MATCH(AK44,AK2:AK41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AL46">
-        <f xml:space="preserve"> MATCH(AL44,AL2:AL41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AM46">
-        <f xml:space="preserve"> MATCH(AM44,AM2:AM41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AN46">
-        <f xml:space="preserve"> MATCH(AN44,AN2:AN41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AO46">
-        <f xml:space="preserve"> MATCH(AO44,AO2:AO41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AP46">
-        <f xml:space="preserve"> MATCH(AP44,AP2:AP41,0)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="AQ46">
-        <f xml:space="preserve"> MATCH(AQ44,AQ2:AQ41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AR46">
-        <f xml:space="preserve"> MATCH(AR44,AR2:AR41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AS46">
-        <f xml:space="preserve"> MATCH(AS44,AS2:AS41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AT46">
-        <f xml:space="preserve"> MATCH(AT44,AT2:AT41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AU46">
-        <f xml:space="preserve"> MATCH(AU44,AU2:AU41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AV46">
-        <f xml:space="preserve"> MATCH(AV44,AV2:AV41,0)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="AW46">
-        <f xml:space="preserve"> MATCH(AW44,AW2:AW41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -60658,195 +60886,195 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <f xml:space="preserve"> MAX(B2:B41)</f>
+        <f t="shared" ref="B44:AW44" si="0" xml:space="preserve"> MAX(B2:B41)</f>
         <v>630</v>
       </c>
       <c r="C44">
-        <f xml:space="preserve"> MAX(C2:C41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="D44">
-        <f xml:space="preserve"> MAX(D2:D41)</f>
+        <f t="shared" si="0"/>
         <v>650</v>
       </c>
       <c r="E44">
-        <f xml:space="preserve"> MAX(E2:E41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="F44">
-        <f xml:space="preserve"> MAX(F2:F41)</f>
+        <f t="shared" si="0"/>
         <v>509</v>
       </c>
       <c r="G44">
-        <f xml:space="preserve"> MAX(G2:G41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="H44">
-        <f xml:space="preserve"> MAX(H2:H41)</f>
+        <f t="shared" si="0"/>
         <v>643</v>
       </c>
       <c r="I44">
-        <f xml:space="preserve"> MAX(I2:I41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="J44">
-        <f xml:space="preserve"> MAX(J2:J41)</f>
+        <f t="shared" si="0"/>
         <v>624</v>
       </c>
       <c r="K44">
-        <f xml:space="preserve"> MAX(K2:K41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="L44">
-        <f xml:space="preserve"> MAX(L2:L41)</f>
+        <f t="shared" si="0"/>
         <v>632</v>
       </c>
       <c r="M44">
-        <f xml:space="preserve"> MAX(M2:M41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="N44">
-        <f xml:space="preserve"> MAX(N2:N41)</f>
+        <f t="shared" si="0"/>
         <v>644</v>
       </c>
       <c r="O44">
-        <f xml:space="preserve"> MAX(O2:O41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="P44">
-        <f xml:space="preserve"> MAX(P2:P41)</f>
+        <f t="shared" si="0"/>
         <v>651</v>
       </c>
       <c r="Q44">
-        <f xml:space="preserve"> MAX(Q2:Q41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="R44">
-        <f xml:space="preserve"> MAX(R2:R41)</f>
+        <f t="shared" si="0"/>
         <v>650</v>
       </c>
       <c r="S44">
-        <f xml:space="preserve"> MAX(S2:S41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="T44">
-        <f xml:space="preserve"> MAX(T2:T41)</f>
+        <f t="shared" si="0"/>
         <v>638</v>
       </c>
       <c r="U44">
-        <f xml:space="preserve"> MAX(U2:U41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="V44">
-        <f xml:space="preserve"> MAX(V2:V41)</f>
+        <f t="shared" si="0"/>
         <v>637</v>
       </c>
       <c r="W44">
-        <f xml:space="preserve"> MAX(W2:W41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="X44">
-        <f xml:space="preserve"> MAX(X2:X41)</f>
+        <f t="shared" si="0"/>
         <v>649</v>
       </c>
       <c r="Y44">
-        <f xml:space="preserve"> MAX(Y2:Y41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="Z44">
-        <f xml:space="preserve"> MAX(Z2:Z41)</f>
+        <f t="shared" si="0"/>
         <v>643</v>
       </c>
       <c r="AA44">
-        <f xml:space="preserve"> MAX(AA2:AA41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="AB44">
-        <f xml:space="preserve"> MAX(AB2:AB41)</f>
+        <f t="shared" si="0"/>
         <v>638</v>
       </c>
       <c r="AC44">
-        <f xml:space="preserve"> MAX(AC2:AC41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="AD44">
-        <f xml:space="preserve"> MAX(AD2:AD41)</f>
+        <f t="shared" si="0"/>
         <v>620</v>
       </c>
       <c r="AE44">
-        <f xml:space="preserve"> MAX(AE2:AE41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AF44">
-        <f xml:space="preserve"> MAX(AF2:AF41)</f>
+        <f t="shared" si="0"/>
         <v>638</v>
       </c>
       <c r="AG44">
-        <f xml:space="preserve"> MAX(AG2:AG41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AH44">
-        <f xml:space="preserve"> MAX(AH2:AH41)</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
       <c r="AI44">
-        <f xml:space="preserve"> MAX(AI2:AI41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AJ44">
-        <f xml:space="preserve"> MAX(AJ2:AJ41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AK44">
-        <f xml:space="preserve"> MAX(AK2:AK41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AL44">
-        <f xml:space="preserve"> MAX(AL2:AL41)</f>
+        <f t="shared" si="0"/>
         <v>622</v>
       </c>
       <c r="AM44">
-        <f xml:space="preserve"> MAX(AM2:AM41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AN44">
-        <f xml:space="preserve"> MAX(AN2:AN41)</f>
+        <f t="shared" si="0"/>
         <v>641</v>
       </c>
       <c r="AO44">
-        <f xml:space="preserve"> MAX(AO2:AO41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AP44">
-        <f xml:space="preserve"> MAX(AP2:AP41)</f>
+        <f t="shared" si="0"/>
         <v>649</v>
       </c>
       <c r="AQ44">
-        <f xml:space="preserve"> MAX(AQ2:AQ41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AR44">
-        <f xml:space="preserve"> MAX(AR2:AR41)</f>
+        <f t="shared" si="0"/>
         <v>620</v>
       </c>
       <c r="AS44">
-        <f xml:space="preserve"> MAX(AS2:AS41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AT44">
-        <f xml:space="preserve"> MAX(AT2:AT41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AU44">
-        <f xml:space="preserve"> MAX(AU2:AU41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AV44">
-        <f xml:space="preserve"> MAX(AV2:AV41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="AW44">
-        <f xml:space="preserve"> MAX(AW2:AW41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
     </row>
@@ -60855,195 +61083,195 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <f xml:space="preserve"> MIN(B2:B41)</f>
+        <f t="shared" ref="B45:AW45" si="1" xml:space="preserve"> MIN(B2:B41)</f>
         <v>540</v>
       </c>
       <c r="C45">
-        <f xml:space="preserve"> MIN(C2:C41)</f>
+        <f t="shared" si="1"/>
         <v>614</v>
       </c>
       <c r="D45">
-        <f xml:space="preserve"> MIN(D2:D41)</f>
+        <f t="shared" si="1"/>
         <v>650</v>
       </c>
       <c r="E45">
-        <f xml:space="preserve"> MIN(E2:E41)</f>
+        <f t="shared" si="1"/>
         <v>629</v>
       </c>
       <c r="F45">
-        <f xml:space="preserve"> MIN(F2:F41)</f>
+        <f t="shared" si="1"/>
         <v>442</v>
       </c>
       <c r="G45">
-        <f xml:space="preserve"> MIN(G2:G41)</f>
+        <f t="shared" si="1"/>
         <v>642</v>
       </c>
       <c r="H45">
-        <f xml:space="preserve"> MIN(H2:H41)</f>
+        <f t="shared" si="1"/>
         <v>401</v>
       </c>
       <c r="I45">
-        <f xml:space="preserve"> MIN(I2:I41)</f>
+        <f t="shared" si="1"/>
         <v>599</v>
       </c>
       <c r="J45">
-        <f xml:space="preserve"> MIN(J2:J41)</f>
+        <f t="shared" si="1"/>
         <v>604</v>
       </c>
       <c r="K45">
-        <f xml:space="preserve"> MIN(K2:K41)</f>
+        <f t="shared" si="1"/>
         <v>606</v>
       </c>
       <c r="L45">
-        <f xml:space="preserve"> MIN(L2:L41)</f>
+        <f t="shared" si="1"/>
         <v>571</v>
       </c>
       <c r="M45">
-        <f xml:space="preserve"> MIN(M2:M41)</f>
+        <f t="shared" si="1"/>
         <v>618</v>
       </c>
       <c r="N45">
-        <f xml:space="preserve"> MIN(N2:N41)</f>
+        <f t="shared" si="1"/>
         <v>601</v>
       </c>
       <c r="O45">
-        <f xml:space="preserve"> MIN(O2:O41)</f>
+        <f t="shared" si="1"/>
         <v>634</v>
       </c>
       <c r="P45">
-        <f xml:space="preserve"> MIN(P2:P41)</f>
+        <f t="shared" si="1"/>
         <v>651</v>
       </c>
       <c r="Q45">
-        <f xml:space="preserve"> MIN(Q2:Q41)</f>
+        <f t="shared" si="1"/>
         <v>585</v>
       </c>
       <c r="R45">
-        <f xml:space="preserve"> MIN(R2:R41)</f>
+        <f t="shared" si="1"/>
         <v>471</v>
       </c>
       <c r="S45">
-        <f xml:space="preserve"> MIN(S2:S41)</f>
+        <f t="shared" si="1"/>
         <v>641</v>
       </c>
       <c r="T45">
-        <f xml:space="preserve"> MIN(T2:T41)</f>
+        <f t="shared" si="1"/>
         <v>599</v>
       </c>
       <c r="U45">
-        <f xml:space="preserve"> MIN(U2:U41)</f>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="V45">
-        <f xml:space="preserve"> MIN(V2:V41)</f>
+        <f t="shared" si="1"/>
         <v>637</v>
       </c>
       <c r="W45">
-        <f xml:space="preserve"> MIN(W2:W41)</f>
+        <f t="shared" si="1"/>
         <v>574</v>
       </c>
       <c r="X45">
-        <f xml:space="preserve"> MIN(X2:X41)</f>
+        <f t="shared" si="1"/>
         <v>523</v>
       </c>
       <c r="Y45">
-        <f xml:space="preserve"> MIN(Y2:Y41)</f>
+        <f t="shared" si="1"/>
         <v>633</v>
       </c>
       <c r="Z45">
-        <f xml:space="preserve"> MIN(Z2:Z41)</f>
+        <f t="shared" si="1"/>
         <v>517</v>
       </c>
       <c r="AA45">
-        <f xml:space="preserve"> MIN(AA2:AA41)</f>
+        <f t="shared" si="1"/>
         <v>590</v>
       </c>
       <c r="AB45">
-        <f xml:space="preserve"> MIN(AB2:AB41)</f>
+        <f t="shared" si="1"/>
         <v>582</v>
       </c>
       <c r="AC45">
-        <f xml:space="preserve"> MIN(AC2:AC41)</f>
+        <f t="shared" si="1"/>
         <v>613</v>
       </c>
       <c r="AD45">
-        <f xml:space="preserve"> MIN(AD2:AD41)</f>
+        <f t="shared" si="1"/>
         <v>581</v>
       </c>
       <c r="AE45">
-        <f xml:space="preserve"> MIN(AE2:AE41)</f>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="AF45">
-        <f xml:space="preserve"> MIN(AF2:AF41)</f>
+        <f t="shared" si="1"/>
         <v>499</v>
       </c>
       <c r="AG45">
-        <f xml:space="preserve"> MIN(AG2:AG41)</f>
+        <f t="shared" si="1"/>
         <v>619</v>
       </c>
       <c r="AH45">
-        <f xml:space="preserve"> MIN(AH2:AH41)</f>
+        <f t="shared" si="1"/>
         <v>551</v>
       </c>
       <c r="AI45">
-        <f xml:space="preserve"> MIN(AI2:AI41)</f>
+        <f t="shared" si="1"/>
         <v>623</v>
       </c>
       <c r="AJ45">
-        <f xml:space="preserve"> MIN(AJ2:AJ41)</f>
+        <f t="shared" si="1"/>
         <v>655</v>
       </c>
       <c r="AK45">
-        <f xml:space="preserve"> MIN(AK2:AK41)</f>
+        <f t="shared" si="1"/>
         <v>641</v>
       </c>
       <c r="AL45">
-        <f xml:space="preserve"> MIN(AL2:AL41)</f>
+        <f t="shared" si="1"/>
         <v>502</v>
       </c>
       <c r="AM45">
-        <f xml:space="preserve"> MIN(AM2:AM41)</f>
+        <f t="shared" si="1"/>
         <v>608</v>
       </c>
       <c r="AN45">
-        <f xml:space="preserve"> MIN(AN2:AN41)</f>
+        <f t="shared" si="1"/>
         <v>473</v>
       </c>
       <c r="AO45">
-        <f xml:space="preserve"> MIN(AO2:AO41)</f>
+        <f t="shared" si="1"/>
         <v>607</v>
       </c>
       <c r="AP45">
-        <f xml:space="preserve"> MIN(AP2:AP41)</f>
+        <f t="shared" si="1"/>
         <v>513</v>
       </c>
       <c r="AQ45">
-        <f xml:space="preserve"> MIN(AQ2:AQ41)</f>
+        <f t="shared" si="1"/>
         <v>579</v>
       </c>
       <c r="AR45">
-        <f xml:space="preserve"> MIN(AR2:AR41)</f>
+        <f t="shared" si="1"/>
         <v>618</v>
       </c>
       <c r="AS45">
-        <f xml:space="preserve"> MIN(AS2:AS41)</f>
+        <f t="shared" si="1"/>
         <v>603</v>
       </c>
       <c r="AT45">
-        <f xml:space="preserve"> MIN(AT2:AT41)</f>
+        <f t="shared" si="1"/>
         <v>561</v>
       </c>
       <c r="AU45">
-        <f xml:space="preserve"> MIN(AU2:AU41)</f>
+        <f t="shared" si="1"/>
         <v>639</v>
       </c>
       <c r="AV45">
-        <f xml:space="preserve"> MIN(AV2:AV41)</f>
+        <f t="shared" si="1"/>
         <v>612</v>
       </c>
       <c r="AW45">
-        <f xml:space="preserve"> MIN(AW2:AW41)</f>
+        <f t="shared" si="1"/>
         <v>626</v>
       </c>
     </row>
@@ -61052,195 +61280,195 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <f xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
+        <f t="shared" ref="B46:AW46" si="2" xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
         <v>1</v>
       </c>
       <c r="C46">
-        <f xml:space="preserve"> MATCH(C44,C2:C41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D46">
-        <f xml:space="preserve"> MATCH(D44,D2:D41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E46">
-        <f xml:space="preserve"> MATCH(E44,E2:E41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F46">
-        <f xml:space="preserve"> MATCH(F44,F2:F41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G46">
-        <f xml:space="preserve"> MATCH(G44,G2:G41,0)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H46">
-        <f xml:space="preserve"> MATCH(H44,H2:H41,0)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I46">
-        <f xml:space="preserve"> MATCH(I44,I2:I41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J46">
-        <f xml:space="preserve"> MATCH(J44,J2:J41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K46">
-        <f xml:space="preserve"> MATCH(K44,K2:K41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L46">
-        <f xml:space="preserve"> MATCH(L44,L2:L41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M46">
-        <f xml:space="preserve"> MATCH(M44,M2:M41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="N46">
-        <f xml:space="preserve"> MATCH(N44,N2:N41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O46">
-        <f xml:space="preserve"> MATCH(O44,O2:O41,0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="P46">
-        <f xml:space="preserve"> MATCH(P44,P2:P41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q46">
-        <f xml:space="preserve"> MATCH(Q44,Q2:Q41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R46">
-        <f xml:space="preserve"> MATCH(R44,R2:R41,0)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="S46">
-        <f xml:space="preserve"> MATCH(S44,S2:S41,0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="T46">
-        <f xml:space="preserve"> MATCH(T44,T2:T41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U46">
-        <f xml:space="preserve"> MATCH(U44,U2:U41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V46">
-        <f xml:space="preserve"> MATCH(V44,V2:V41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W46">
-        <f xml:space="preserve"> MATCH(W44,W2:W41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="X46">
-        <f xml:space="preserve"> MATCH(X44,X2:X41,0)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="Y46">
-        <f xml:space="preserve"> MATCH(Y44,Y2:Y41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Z46">
-        <f xml:space="preserve"> MATCH(Z44,Z2:Z41,0)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="AA46">
-        <f xml:space="preserve"> MATCH(AA44,AA2:AA41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB46">
-        <f xml:space="preserve"> MATCH(AB44,AB2:AB41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AC46">
-        <f xml:space="preserve"> MATCH(AC44,AC2:AC41,0)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AD46">
-        <f xml:space="preserve"> MATCH(AD44,AD2:AD41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE46">
-        <f xml:space="preserve"> MATCH(AE44,AE2:AE41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AF46">
-        <f xml:space="preserve"> MATCH(AF44,AF2:AF41,0)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="AG46">
-        <f xml:space="preserve"> MATCH(AG44,AG2:AG41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AH46">
-        <f xml:space="preserve"> MATCH(AH44,AH2:AH41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AI46">
-        <f xml:space="preserve"> MATCH(AI44,AI2:AI41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AJ46">
-        <f xml:space="preserve"> MATCH(AJ44,AJ2:AJ41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AK46">
-        <f xml:space="preserve"> MATCH(AK44,AK2:AK41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AL46">
-        <f xml:space="preserve"> MATCH(AL44,AL2:AL41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AM46">
-        <f xml:space="preserve"> MATCH(AM44,AM2:AM41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AN46">
-        <f xml:space="preserve"> MATCH(AN44,AN2:AN41,0)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="AO46">
-        <f xml:space="preserve"> MATCH(AO44,AO2:AO41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AP46">
-        <f xml:space="preserve"> MATCH(AP44,AP2:AP41,0)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="AQ46">
-        <f xml:space="preserve"> MATCH(AQ44,AQ2:AQ41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AR46">
-        <f xml:space="preserve"> MATCH(AR44,AR2:AR41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AS46">
-        <f xml:space="preserve"> MATCH(AS44,AS2:AS41,0)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AT46">
-        <f xml:space="preserve"> MATCH(AT44,AT2:AT41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AU46">
-        <f xml:space="preserve"> MATCH(AU44,AU2:AU41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AV46">
-        <f xml:space="preserve"> MATCH(AV44,AV2:AV41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AW46">
-        <f xml:space="preserve"> MATCH(AW44,AW2:AW41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -67248,195 +67476,195 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <f xml:space="preserve"> MAX(B2:B41)</f>
+        <f t="shared" ref="B44:AW44" si="0" xml:space="preserve"> MAX(B2:B41)</f>
         <v>655</v>
       </c>
       <c r="C44">
-        <f xml:space="preserve"> MAX(C2:C41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="D44">
-        <f xml:space="preserve"> MAX(D2:D41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="E44">
-        <f xml:space="preserve"> MAX(E2:E41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="F44">
-        <f xml:space="preserve"> MAX(F2:F41)</f>
+        <f t="shared" si="0"/>
         <v>651</v>
       </c>
       <c r="G44">
-        <f xml:space="preserve"> MAX(G2:G41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="H44">
-        <f xml:space="preserve"> MAX(H2:H41)</f>
+        <f t="shared" si="0"/>
         <v>614</v>
       </c>
       <c r="I44">
-        <f xml:space="preserve"> MAX(I2:I41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="J44">
-        <f xml:space="preserve"> MAX(J2:J41)</f>
+        <f t="shared" si="0"/>
         <v>634</v>
       </c>
       <c r="K44">
-        <f xml:space="preserve"> MAX(K2:K41)</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
       <c r="L44">
-        <f xml:space="preserve"> MAX(L2:L41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="M44">
-        <f xml:space="preserve"> MAX(M2:M41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="N44">
-        <f xml:space="preserve"> MAX(N2:N41)</f>
+        <f t="shared" si="0"/>
         <v>636</v>
       </c>
       <c r="O44">
-        <f xml:space="preserve"> MAX(O2:O41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="P44">
-        <f xml:space="preserve"> MAX(P2:P41)</f>
+        <f t="shared" si="0"/>
         <v>645</v>
       </c>
       <c r="Q44">
-        <f xml:space="preserve"> MAX(Q2:Q41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="R44">
-        <f xml:space="preserve"> MAX(R2:R41)</f>
+        <f t="shared" si="0"/>
         <v>647</v>
       </c>
       <c r="S44">
-        <f xml:space="preserve"> MAX(S2:S41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="T44">
-        <f xml:space="preserve"> MAX(T2:T41)</f>
+        <f t="shared" si="0"/>
         <v>637</v>
       </c>
       <c r="U44">
-        <f xml:space="preserve"> MAX(U2:U41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="V44">
-        <f xml:space="preserve"> MAX(V2:V41)</f>
+        <f t="shared" si="0"/>
         <v>533</v>
       </c>
       <c r="W44">
-        <f xml:space="preserve"> MAX(W2:W41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="X44">
-        <f xml:space="preserve"> MAX(X2:X41)</f>
+        <f t="shared" si="0"/>
         <v>623</v>
       </c>
       <c r="Y44">
-        <f xml:space="preserve"> MAX(Y2:Y41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="Z44">
-        <f xml:space="preserve"> MAX(Z2:Z41)</f>
+        <f t="shared" si="0"/>
         <v>631</v>
       </c>
       <c r="AA44">
-        <f xml:space="preserve"> MAX(AA2:AA41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AB44">
-        <f xml:space="preserve"> MAX(AB2:AB41)</f>
+        <f t="shared" si="0"/>
         <v>634</v>
       </c>
       <c r="AC44">
-        <f xml:space="preserve"> MAX(AC2:AC41)</f>
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="AD44">
-        <f xml:space="preserve"> MAX(AD2:AD41)</f>
+        <f t="shared" si="0"/>
         <v>645</v>
       </c>
       <c r="AE44">
-        <f xml:space="preserve"> MAX(AE2:AE41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AF44">
-        <f xml:space="preserve"> MAX(AF2:AF41)</f>
+        <f t="shared" si="0"/>
         <v>633</v>
       </c>
       <c r="AG44">
-        <f xml:space="preserve"> MAX(AG2:AG41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AH44">
-        <f xml:space="preserve"> MAX(AH2:AH41)</f>
+        <f t="shared" si="0"/>
         <v>645</v>
       </c>
       <c r="AI44">
-        <f xml:space="preserve"> MAX(AI2:AI41)</f>
+        <f t="shared" si="0"/>
         <v>650</v>
       </c>
       <c r="AJ44">
-        <f xml:space="preserve"> MAX(AJ2:AJ41)</f>
+        <f t="shared" si="0"/>
         <v>649</v>
       </c>
       <c r="AK44">
-        <f xml:space="preserve"> MAX(AK2:AK41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AL44">
-        <f xml:space="preserve"> MAX(AL2:AL41)</f>
+        <f t="shared" si="0"/>
         <v>639</v>
       </c>
       <c r="AM44">
-        <f xml:space="preserve"> MAX(AM2:AM41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AN44">
-        <f xml:space="preserve"> MAX(AN2:AN41)</f>
+        <f t="shared" si="0"/>
         <v>638</v>
       </c>
       <c r="AO44">
-        <f xml:space="preserve"> MAX(AO2:AO41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AP44">
-        <f xml:space="preserve"> MAX(AP2:AP41)</f>
+        <f t="shared" si="0"/>
         <v>614</v>
       </c>
       <c r="AQ44">
-        <f xml:space="preserve"> MAX(AQ2:AQ41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AR44">
-        <f xml:space="preserve"> MAX(AR2:AR41)</f>
+        <f t="shared" si="0"/>
         <v>517</v>
       </c>
       <c r="AS44">
-        <f xml:space="preserve"> MAX(AS2:AS41)</f>
+        <f t="shared" si="0"/>
         <v>654</v>
       </c>
       <c r="AT44">
-        <f xml:space="preserve"> MAX(AT2:AT41)</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
       <c r="AU44">
-        <f xml:space="preserve"> MAX(AU2:AU41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
       <c r="AV44">
-        <f xml:space="preserve"> MAX(AV2:AV41)</f>
+        <f t="shared" si="0"/>
         <v>647</v>
       </c>
       <c r="AW44">
-        <f xml:space="preserve"> MAX(AW2:AW41)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
     </row>
@@ -67445,195 +67673,195 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <f xml:space="preserve"> MIN(B2:B41)</f>
+        <f t="shared" ref="B45:AW45" si="1" xml:space="preserve"> MIN(B2:B41)</f>
         <v>655</v>
       </c>
       <c r="C45">
-        <f xml:space="preserve"> MIN(C2:C41)</f>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="D45">
-        <f xml:space="preserve"> MIN(D2:D41)</f>
+        <f t="shared" si="1"/>
         <v>604</v>
       </c>
       <c r="E45">
-        <f xml:space="preserve"> MIN(E2:E41)</f>
+        <f t="shared" si="1"/>
         <v>647</v>
       </c>
       <c r="F45">
-        <f xml:space="preserve"> MIN(F2:F41)</f>
+        <f t="shared" si="1"/>
         <v>601</v>
       </c>
       <c r="G45">
-        <f xml:space="preserve"> MIN(G2:G41)</f>
+        <f t="shared" si="1"/>
         <v>620</v>
       </c>
       <c r="H45">
-        <f xml:space="preserve"> MIN(H2:H41)</f>
+        <f t="shared" si="1"/>
         <v>606</v>
       </c>
       <c r="I45">
-        <f xml:space="preserve"> MIN(I2:I41)</f>
+        <f t="shared" si="1"/>
         <v>631</v>
       </c>
       <c r="J45">
-        <f xml:space="preserve"> MIN(J2:J41)</f>
+        <f t="shared" si="1"/>
         <v>548</v>
       </c>
       <c r="K45">
-        <f xml:space="preserve"> MIN(K2:K41)</f>
+        <f t="shared" si="1"/>
         <v>621</v>
       </c>
       <c r="L45">
-        <f xml:space="preserve"> MIN(L2:L41)</f>
+        <f t="shared" si="1"/>
         <v>582</v>
       </c>
       <c r="M45">
-        <f xml:space="preserve"> MIN(M2:M41)</f>
+        <f t="shared" si="1"/>
         <v>635</v>
       </c>
       <c r="N45">
-        <f xml:space="preserve"> MIN(N2:N41)</f>
+        <f t="shared" si="1"/>
         <v>564</v>
       </c>
       <c r="O45">
-        <f xml:space="preserve"> MIN(O2:O41)</f>
+        <f t="shared" si="1"/>
         <v>605</v>
       </c>
       <c r="P45">
-        <f xml:space="preserve"> MIN(P2:P41)</f>
+        <f t="shared" si="1"/>
         <v>462</v>
       </c>
       <c r="Q45">
-        <f xml:space="preserve"> MIN(Q2:Q41)</f>
+        <f t="shared" si="1"/>
         <v>638</v>
       </c>
       <c r="R45">
-        <f xml:space="preserve"> MIN(R2:R41)</f>
+        <f t="shared" si="1"/>
         <v>533</v>
       </c>
       <c r="S45">
-        <f xml:space="preserve"> MIN(S2:S41)</f>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="T45">
-        <f xml:space="preserve"> MIN(T2:T41)</f>
+        <f t="shared" si="1"/>
         <v>588</v>
       </c>
       <c r="U45">
-        <f xml:space="preserve"> MIN(U2:U41)</f>
+        <f t="shared" si="1"/>
         <v>621</v>
       </c>
       <c r="V45">
-        <f xml:space="preserve"> MIN(V2:V41)</f>
+        <f t="shared" si="1"/>
         <v>484</v>
       </c>
       <c r="W45">
-        <f xml:space="preserve"> MIN(W2:W41)</f>
+        <f t="shared" si="1"/>
         <v>643</v>
       </c>
       <c r="X45">
-        <f xml:space="preserve"> MIN(X2:X41)</f>
+        <f t="shared" si="1"/>
         <v>615</v>
       </c>
       <c r="Y45">
-        <f xml:space="preserve"> MIN(Y2:Y41)</f>
+        <f t="shared" si="1"/>
         <v>623</v>
       </c>
       <c r="Z45">
-        <f xml:space="preserve"> MIN(Z2:Z41)</f>
+        <f t="shared" si="1"/>
         <v>615</v>
       </c>
       <c r="AA45">
-        <f xml:space="preserve"> MIN(AA2:AA41)</f>
+        <f t="shared" si="1"/>
         <v>621</v>
       </c>
       <c r="AB45">
-        <f xml:space="preserve"> MIN(AB2:AB41)</f>
+        <f t="shared" si="1"/>
         <v>624</v>
       </c>
       <c r="AC45">
-        <f xml:space="preserve"> MIN(AC2:AC41)</f>
+        <f t="shared" si="1"/>
         <v>594</v>
       </c>
       <c r="AD45">
-        <f xml:space="preserve"> MIN(AD2:AD41)</f>
+        <f t="shared" si="1"/>
         <v>635</v>
       </c>
       <c r="AE45">
-        <f xml:space="preserve"> MIN(AE2:AE41)</f>
+        <f t="shared" si="1"/>
         <v>642</v>
       </c>
       <c r="AF45">
-        <f xml:space="preserve"> MIN(AF2:AF41)</f>
+        <f t="shared" si="1"/>
         <v>531</v>
       </c>
       <c r="AG45">
-        <f xml:space="preserve"> MIN(AG2:AG41)</f>
+        <f t="shared" si="1"/>
         <v>606</v>
       </c>
       <c r="AH45">
-        <f xml:space="preserve"> MIN(AH2:AH41)</f>
+        <f t="shared" si="1"/>
         <v>612</v>
       </c>
       <c r="AI45">
-        <f xml:space="preserve"> MIN(AI2:AI41)</f>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="AJ45">
-        <f xml:space="preserve"> MIN(AJ2:AJ41)</f>
+        <f t="shared" si="1"/>
         <v>539</v>
       </c>
       <c r="AK45">
-        <f xml:space="preserve"> MIN(AK2:AK41)</f>
+        <f t="shared" si="1"/>
         <v>643</v>
       </c>
       <c r="AL45">
-        <f xml:space="preserve"> MIN(AL2:AL41)</f>
+        <f t="shared" si="1"/>
         <v>620</v>
       </c>
       <c r="AM45">
-        <f xml:space="preserve"> MIN(AM2:AM41)</f>
+        <f t="shared" si="1"/>
         <v>584</v>
       </c>
       <c r="AN45">
-        <f xml:space="preserve"> MIN(AN2:AN41)</f>
+        <f t="shared" si="1"/>
         <v>619</v>
       </c>
       <c r="AO45">
-        <f xml:space="preserve"> MIN(AO2:AO41)</f>
+        <f t="shared" si="1"/>
         <v>612</v>
       </c>
       <c r="AP45">
-        <f xml:space="preserve"> MIN(AP2:AP41)</f>
+        <f t="shared" si="1"/>
         <v>466</v>
       </c>
       <c r="AQ45">
-        <f xml:space="preserve"> MIN(AQ2:AQ41)</f>
+        <f t="shared" si="1"/>
         <v>615</v>
       </c>
       <c r="AR45">
-        <f xml:space="preserve"> MIN(AR2:AR41)</f>
+        <f t="shared" si="1"/>
         <v>476</v>
       </c>
       <c r="AS45">
-        <f xml:space="preserve"> MIN(AS2:AS41)</f>
+        <f t="shared" si="1"/>
         <v>629</v>
       </c>
       <c r="AT45">
-        <f xml:space="preserve"> MIN(AT2:AT41)</f>
+        <f t="shared" si="1"/>
         <v>570</v>
       </c>
       <c r="AU45">
-        <f xml:space="preserve"> MIN(AU2:AU41)</f>
+        <f t="shared" si="1"/>
         <v>565</v>
       </c>
       <c r="AV45">
-        <f xml:space="preserve"> MIN(AV2:AV41)</f>
+        <f t="shared" si="1"/>
         <v>580</v>
       </c>
       <c r="AW45">
-        <f xml:space="preserve"> MIN(AW2:AW41)</f>
+        <f t="shared" si="1"/>
         <v>644</v>
       </c>
     </row>
@@ -67642,195 +67870,195 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <f xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
+        <f t="shared" ref="B46:AW46" si="2" xml:space="preserve"> MATCH(B44,B2:B41,0)</f>
         <v>1</v>
       </c>
       <c r="C46">
-        <f xml:space="preserve"> MATCH(C44,C2:C41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D46">
-        <f xml:space="preserve"> MATCH(D44,D2:D41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E46">
-        <f xml:space="preserve"> MATCH(E44,E2:E41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F46">
-        <f xml:space="preserve"> MATCH(F44,F2:F41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G46">
-        <f xml:space="preserve"> MATCH(G44,G2:G41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H46">
-        <f xml:space="preserve"> MATCH(H44,H2:H41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I46">
-        <f xml:space="preserve"> MATCH(I44,I2:I41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J46">
-        <f xml:space="preserve"> MATCH(J44,J2:J41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K46">
-        <f xml:space="preserve"> MATCH(K44,K2:K41,0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="L46">
-        <f xml:space="preserve"> MATCH(L44,L2:L41,0)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="M46">
-        <f xml:space="preserve"> MATCH(M44,M2:M41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="N46">
-        <f xml:space="preserve"> MATCH(N44,N2:N41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O46">
-        <f xml:space="preserve"> MATCH(O44,O2:O41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P46">
-        <f xml:space="preserve"> MATCH(P44,P2:P41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Q46">
-        <f xml:space="preserve"> MATCH(Q44,Q2:Q41,0)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="R46">
-        <f xml:space="preserve"> MATCH(R44,R2:R41,0)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="S46">
-        <f xml:space="preserve"> MATCH(S44,S2:S41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="T46">
-        <f xml:space="preserve"> MATCH(T44,T2:T41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U46">
-        <f xml:space="preserve"> MATCH(U44,U2:U41,0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="V46">
-        <f xml:space="preserve"> MATCH(V44,V2:V41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="W46">
-        <f xml:space="preserve"> MATCH(W44,W2:W41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X46">
-        <f xml:space="preserve"> MATCH(X44,X2:X41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y46">
-        <f xml:space="preserve"> MATCH(Y44,Y2:Y41,0)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="Z46">
-        <f xml:space="preserve"> MATCH(Z44,Z2:Z41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA46">
-        <f xml:space="preserve"> MATCH(AA44,AA2:AA41,0)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AB46">
-        <f xml:space="preserve"> MATCH(AB44,AB2:AB41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AC46">
-        <f xml:space="preserve"> MATCH(AC44,AC2:AC41,0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AD46">
-        <f xml:space="preserve"> MATCH(AD44,AD2:AD41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE46">
-        <f xml:space="preserve"> MATCH(AE44,AE2:AE41,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF46">
-        <f xml:space="preserve"> MATCH(AF44,AF2:AF41,0)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="AG46">
-        <f xml:space="preserve"> MATCH(AG44,AG2:AG41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AH46">
-        <f xml:space="preserve"> MATCH(AH44,AH2:AH41,0)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="AI46">
-        <f xml:space="preserve"> MATCH(AI44,AI2:AI41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AJ46">
-        <f xml:space="preserve"> MATCH(AJ44,AJ2:AJ41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AK46">
-        <f xml:space="preserve"> MATCH(AK44,AK2:AK41,0)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AL46">
-        <f xml:space="preserve"> MATCH(AL44,AL2:AL41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AM46">
-        <f xml:space="preserve"> MATCH(AM44,AM2:AM41,0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AN46">
-        <f xml:space="preserve"> MATCH(AN44,AN2:AN41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AO46">
-        <f xml:space="preserve"> MATCH(AO44,AO2:AO41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AP46">
-        <f xml:space="preserve"> MATCH(AP44,AP2:AP41,0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AQ46">
-        <f xml:space="preserve"> MATCH(AQ44,AQ2:AQ41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AR46">
-        <f xml:space="preserve"> MATCH(AR44,AR2:AR41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AS46">
-        <f xml:space="preserve"> MATCH(AS44,AS2:AS41,0)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AT46">
-        <f xml:space="preserve"> MATCH(AT44,AT2:AT41,0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AU46">
-        <f xml:space="preserve"> MATCH(AU44,AU2:AU41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AV46">
-        <f xml:space="preserve"> MATCH(AV44,AV2:AV41,0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AW46">
-        <f xml:space="preserve"> MATCH(AW44,AW2:AW41,0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
